--- a/data_excel/接口测试用例_ (2).xlsx
+++ b/data_excel/接口测试用例_ (2).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-13 09:42:51', 'context': '查无结果', 'ftime': '2019-09-13 09:42:51'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:14:23', 'ftime': '2019-09-29 09:14:23', 'context': '[沧州市]快件到达 【沧州张辛庄集散点】', 'location': '沧州市'}, {'time': '2019-09-29 06:53:50', 'ftime': '2019-09-29 06:53:50', 'context': '[天津市]快件已发车', 'location': '天津市'}, {'time': '2019-09-29 05:41:45', 'ftime': '2019-09-29 05:41:45', 'context': '[天津市]快件在【天津快运中转场】已装车,准备发往 【沧州张辛庄集散点】', 'location': '天津市'}, {'time': '2019-09-28 22:11:26', 'ftime': '2019-09-28 22:11:26', 'context': '[天津市]快件到达 【天津快运中转场】', 'location': '天津市'}, {'time': '2019-09-28 01:39:08', 'ftime': '2019-09-28 01:39:08', 'context': '[常州市]快件已发车', 'location': '常州市'}, {'time': '2019-09-28 01:38:53', 'ftime': '2019-09-28 01:38:53', 'context': '快件在【常州市大客户营业部】已装车,准备发往 【天津快运中转场】', 'location': '常州市'}, {'time': '2019-09-26 23:50:51', 'ftime': '2019-09-26 23:50:51', 'context': '[常州市]顺丰速运 已收取快件', 'location': '常州市'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.061281</v>
+        <v>0.07011299999999999</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.023249</v>
+        <v>0.009294</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 07:45:18', 'ftime': '2019-09-28 07:45:18', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-28 07:45:17', 'ftime': '2019-09-28 07:45:17', 'context': '货物已到达【黄冈麻城营业部】', 'location': ''}, {'time': '2019-09-27 23:02:14', 'ftime': '2019-09-27 23:02:14', 'context': '货物已完成分拣，离开【武汉亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 22:45:04', 'ftime': '2019-09-27 22:45:04', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 22:45:04', 'ftime': '2019-09-27 22:45:04', 'context': '货物已到达【武汉亚一分拣中心】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:29:37', 'ftime': '2019-09-29 09:29:37', 'context': '到达【西安中心】（经转）', 'location': ''}, {'time': '2019-09-28 22:55:51', 'ftime': '2019-09-28 22:55:51', 'context': '离开【邮政榆林市邮件】,下一站【西安中心】', 'location': ''}, {'time': '2019-09-28 20:59:12', 'ftime': '2019-09-28 20:59:12', 'context': '到达【邮政榆林市邮件】', 'location': ''}, {'time': '2019-09-28 17:17:43', 'ftime': '2019-09-28 17:17:43', 'context': '离开【神木店塔邮政支局】,下一站【榆林中心】', 'location': ''}, {'time': '2019-09-28 12:09:53', 'ftime': '2019-09-28 12:09:53', 'context': '【神木店塔邮政支局】已收件,揽投员:王红雄,电话:18091261642', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.069464</v>
+        <v>0.073106</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.01082</v>
+        <v>0.008456</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 22:30:58', 'ftime': '2019-09-27 22:30:58', 'context': '江西赣州转运中心-已发往-江西南昌转运中心', 'location': ''}, {'time': '2019-09-27 22:30:58', 'ftime': '2019-09-27 22:30:58', 'context': '江西赣州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 22:26:16', 'ftime': '2019-09-27 22:26:16', 'context': '派送不成功-原因：建包错发件', 'location': ''}, {'time': '2019-09-27 20:17:41', 'ftime': '2019-09-27 20:17:41', 'context': '已到达-江西赣州转运中心', 'location': ''}, {'time': '2019-09-27 20:17:41', 'ftime': '2019-09-27 20:17:41', 'context': '快件已在【江西赣州转运中心】进行卸车，扫描员【王宪亮】', 'location': ''}, {'time': '2019-09-27 06:14:13', 'ftime': '2019-09-27 06:14:13', 'context': '江西南昌转运中心-已发往-江西赣州转运中心', 'location': ''}, {'time': '2019-09-27 06:14:13', 'ftime': '2019-09-27 06:14:13', 'context': '江西南昌转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-27 05:59:04', 'ftime': '2019-09-27 05:59:04', 'context': '已到达-江西南昌转运中心', 'location': ''}, {'time': '2019-09-27 05:56:55', 'ftime': '2019-09-27 05:56:55', 'context': '已到达-江西南昌转运中心', 'location': ''}, {'time': '2019-09-26 02:54:26', 'ftime': '2019-09-26 02:54:26', 'context': '广东广州转运中心-已发往-江西南昌转运中心', 'location': ''}, {'time': '2019-09-26 02:54:26', 'ftime': '2019-09-26 02:54:26', 'context': '广东广州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-26 02:31:18', 'ftime': '2019-09-26 02:31:18', 'context': '广东广州转运中心-已发往-江西南昌转运中心', 'location': ''}, {'time': '2019-09-26 02:31:18', 'ftime': '2019-09-26 02:31:18', 'context': '广东广州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-26 02:25:24', 'ftime': '2019-09-26 02:25:24', 'context': '已到达-广东广州转运中心', 'location': ''}, {'time': '2019-09-25 23:00:19', 'ftime': '2019-09-25 23:00:19', 'context': '广东广州汇侨分部-黄鹏举(13430232233)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:43:01', 'ftime': '2019-09-29 06:43:01', 'context': '【合肥市】 快件离开 【合肥中转部】 已发往 【合肥包河六部】', 'location': ''}, {'time': '2019-09-29 05:05:32', 'ftime': '2019-09-29 05:05:32', 'context': '【合肥市】 快件已经到达 【合肥中转部】', 'location': ''}, {'time': '2019-09-28 05:47:52', 'ftime': '2019-09-28 05:47:52', 'context': '【广州市】 快件离开 【广州中心】 已发往 【合肥中转部】', 'location': ''}, {'time': '2019-09-28 05:44:37', 'ftime': '2019-09-28 05:44:37', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-28 03:28:35', 'ftime': '2019-09-28 03:28:35', 'context': '【广州市】 快件离开 【广州广园】 已发往 【合肥中转部】', 'location': ''}, {'time': '2019-09-28 02:21:42', 'ftime': '2019-09-28 02:21:42', 'context': '【广州市】 【广州广园】（020-37414075、020-37414074、020-37414073） 的 桂花岗中通（13288637551） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07364900000000001</v>
+        <v>0.07160999999999999</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.01088</v>
+        <v>0.014446</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-10-24 10:09:41', 'ftime': '2018-10-24 10:09:41', 'context': '[天津市]天津市【天津金融街分部】，和谐大厦主楼大门外 已签收', 'location': None}, {'time': '2018-10-24 08:00:09', 'ftime': '2018-10-24 08:00:09', 'context': '[天津市]天津市【天津金融街分部】，【曲津杭/15122074132】正在派件', 'location': None}, {'time': '2018-10-24 07:38:21', 'ftime': '2018-10-24 07:38:21', 'context': '[天津市]到天津市【天津金融街分部】', 'location': None}, {'time': '2018-10-23 18:55:16', 'ftime': '2018-10-23 18:55:16', 'context': '[天津市]天津市【天津转运中心】，正发往【天津金融街分部】', 'location': None}, {'time': '2018-10-23 14:44:55', 'ftime': '2018-10-23 14:44:55', 'context': '[天津市]到天津市【天津转运中心】', 'location': None}, {'time': '2018-10-22 03:52:58', 'ftime': '2018-10-22 03:52:58', 'context': '[广州市]广州市【广州转运中心】，正发往【天津转运中心】', 'location': None}, {'time': '2018-10-21 21:55:04', 'ftime': '2018-10-21 21:55:04', 'context': '[广州市]到广州市【广州转运中心】', 'location': None}, {'time': '2018-10-21 12:33:57', 'ftime': '2018-10-21 12:33:57', 'context': '[广州市]广州市【广州白云区十九部003】，【P胡光荣/18620163682】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 10:07:08', 'context': '查无结果', 'ftime': '2019-09-27 10:07:08'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.069788</v>
+        <v>0.06941700000000001</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.011009</v>
+        <v>0.069949</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-27 23:07:40', 'ftime': '2019-09-27 23:07:40', 'context': ' 所有货物（共3件）由【江西景德镇】发往【南昌分拨】;', 'location': ''}, {'time': '2019-09-27 23:07:20', 'ftime': '2019-09-27 23:07:20', 'context': '快件由【江西景德镇】发往【南昌分拨】', 'location': ''}, {'time': '2019-09-27 21:48:00', 'ftime': '2019-09-27 21:48:00', 'context': '快件已到达【南昌分拨】', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-21 10:07:08', 'context': '查无结果', 'ftime': '2019-09-21 10:07:08'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.073972</v>
+        <v>0.065063</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010533</v>
+        <v>0.008769000000000001</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-28 09:42:51', 'context': '查无结果', 'ftime': '2019-09-28 09:42:51'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 17:12:53', 'ftime': '2019-09-28 17:12:53', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-28 17:08:34', 'ftime': '2019-09-28 17:08:34', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-27 19:40:17', 'ftime': '2019-09-27 19:40:17', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 19:40:17', 'ftime': '2019-09-27 19:40:17', 'context': '配送员杨启已经揽收完成', 'location': ''}, {'time': '2019-09-27 19:09:19', 'ftime': '2019-09-27 19:09:19', 'context': '揽收任务已分配给杨启,配送员电话18884162771', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.06586699999999999</v>
+        <v>0.069184</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.009741</v>
+        <v>0.013263</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-08-11 12:50:16', 'ftime': '2018-08-11 12:50:16', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-08-11 12:40:08', 'ftime': '2018-08-11 12:40:08', 'context': ' 上门取件失败，准备再次取件，原因：客户改本站地址，备注：再投无备注下次再投时间:2018-08-11 13:00:00', 'location': None}, {'time': '2018-08-11 09:00:12', 'ftime': '2018-08-11 09:00:12', 'context': ' 配送员：李小军已出发，手机号：18088804579，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-08-11 07:09:44', 'ftime': '2018-08-11 07:09:44', 'context': ' 取件任务分配给惠州麦地站', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-28 22:05:38', 'ftime': '2019-09-28 22:05:38', 'context': '南京市 离开【国际大宗收寄中心】,下一站【南京国际】', 'location': '国际大宗收寄中心'}, {'time': '2019-09-28 17:51:54', 'ftime': '2019-09-28 17:51:54', 'context': '南京市 【国际大宗收寄中心】已收件,揽投员:杨峰', 'location': '国际大宗收寄中心'}, {'time': '2019-09-27 00:39:13', 'ftime': '2019-09-27 00:39:13', 'context': '物流订单已创建(WISH邮平台)', 'location': 'null'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.07276100000000001</v>
+        <v>0.07134799999999999</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010037</v>
+        <v>0.009179</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-14 09:42:51', 'context': '查无结果', 'ftime': '2019-09-14 09:42:51'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-07 10:07:08', 'context': '查无结果', 'ftime': '2019-09-07 10:07:08'}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.063376</v>
+        <v>0.14076</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.009589</v>
+        <v>0.010414</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-08 09:42:52', 'context': '查无结果', 'ftime': '2019-09-08 09:42:52'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-28 17:39:15', 'ftime': '2019-09-28 17:39:15', 'context': '订单已再投，再投原因：【开箱验货拒收】，下一次预计派送时间 2019-09-29 17:39:15', 'location': ''}, {'time': '2019-09-28 16:03:19', 'ftime': '2019-09-28 16:03:19', 'context': '配送员开始配送，请您准备收货，配送员，陈居汕，手机号，17687372815', 'location': ''}, {'time': '2019-09-28 10:01:51', 'ftime': '2019-09-28 10:01:51', 'context': '订单已再投，再投原因：【要求拒收】，下一次预计派送时间 2019-09-29 10:01:51', 'location': ''}, {'time': '2019-09-28 08:58:19', 'ftime': '2019-09-28 08:58:19', 'context': '配送员开始配送，请您准备收货，配送员，钱露方，手机号，17687034965', 'location': ''}, {'time': '2019-09-28 07:11:54', 'ftime': '2019-09-28 07:11:54', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-28 07:11:53', 'ftime': '2019-09-28 07:11:53', 'context': '货物已到达【杭州交通营业部】', 'location': ''}, {'time': '2019-09-28 04:07:19', 'ftime': '2019-09-28 04:07:19', 'context': '货物已完成分拣，离开【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 23:04:19', 'ftime': '2019-09-27 23:04:19', 'context': '货物已到达【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 21:09:32', 'ftime': '2019-09-27 21:09:32', 'context': '货物已到达【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 14:00:19', 'ftime': '2019-09-27 14:00:19', 'context': '订单已再投，再投原因：【超站点配送范围5公里】，下一次预计派送时间 2019-09-28 10:00:00', 'location': ''}, {'time': '2019-09-27 13:49:28', 'ftime': '2019-09-27 13:49:28', 'context': '配送员开始配送，请您准备收货，配送员，李杨，手机号，18151171861', 'location': ''}, {'time': '2019-09-27 07:51:04', 'ftime': '2019-09-27 07:51:04', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-27 07:51:03', 'ftime': '2019-09-27 07:51:03', 'context': '货物已到达【杭州三墩营业部】', 'location': ''}, {'time': '2019-09-27 04:26:38', 'ftime': '2019-09-27 04:26:38', 'context': '货物已完成分拣，离开【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 01:55:27', 'ftime': '2019-09-27 01:55:27', 'context': '货物已到达【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 01:49:01', 'ftime': '2019-09-27 01:49:01', 'context': '货物已到达【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-26 18:22:13', 'ftime': '2019-09-26 18:22:13', 'context': '货物已完成分拣，离开【昆山宇培分拣中心】', 'location': ''}, {'time': '2019-09-26 18:19:21', 'ftime': '2019-09-26 18:19:21', 'context': '货物已到达【昆山宇培分拣中心】', 'location': ''}, {'time': '2019-09-25 23:50:52', 'ftime': '2019-09-25 23:50:52', 'context': '货物已完成分拣，离开【郑州外单分拨中心】', 'location': ''}, {'time': '2019-09-25 23:48:44', 'ftime': '2019-09-25 23:48:44', 'context': '货物已到达【郑州外单分拨中心】', 'location': ''}, {'time': '2019-09-25 18:48:22', 'ftime': '2019-09-25 18:48:22', 'context': '货物已完成分拣，离开【鹤壁中转场】', 'location': ''}, {'time': '2019-09-25 17:06:05', 'ftime': '2019-09-25 17:06:05', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-25 17:06:05', 'ftime': '2019-09-25 17:06:05', 'context': '配送员秦铭坤已经揽收完成', 'location': ''}, {'time': '2019-09-25 13:36:13', 'ftime': '2019-09-25 13:36:13', 'context': '揽收任务已分配给秦铭坤,配送员电话18567208799', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.066686</v>
+        <v>0.072364</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.008689000000000001</v>
+        <v>0.009526</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (2).xlsx
+++ b/data_excel/接口测试用例_ (2).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:14:23', 'ftime': '2019-09-29 09:14:23', 'context': '[沧州市]快件到达 【沧州张辛庄集散点】', 'location': '沧州市'}, {'time': '2019-09-29 06:53:50', 'ftime': '2019-09-29 06:53:50', 'context': '[天津市]快件已发车', 'location': '天津市'}, {'time': '2019-09-29 05:41:45', 'ftime': '2019-09-29 05:41:45', 'context': '[天津市]快件在【天津快运中转场】已装车,准备发往 【沧州张辛庄集散点】', 'location': '天津市'}, {'time': '2019-09-28 22:11:26', 'ftime': '2019-09-28 22:11:26', 'context': '[天津市]快件到达 【天津快运中转场】', 'location': '天津市'}, {'time': '2019-09-28 01:39:08', 'ftime': '2019-09-28 01:39:08', 'context': '[常州市]快件已发车', 'location': '常州市'}, {'time': '2019-09-28 01:38:53', 'ftime': '2019-09-28 01:38:53', 'context': '快件在【常州市大客户营业部】已装车,准备发往 【天津快运中转场】', 'location': '常州市'}, {'time': '2019-09-26 23:50:51', 'ftime': '2019-09-26 23:50:51', 'context': '[常州市]顺丰速运 已收取快件', 'location': '常州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 10:22:10', 'context': '查无结果', 'ftime': '2019-09-18 10:22:10'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.07011299999999999</v>
+        <v>0.070561</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009294</v>
+        <v>0.010021</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 09:29:37', 'ftime': '2019-09-29 09:29:37', 'context': '到达【西安中心】（经转）', 'location': ''}, {'time': '2019-09-28 22:55:51', 'ftime': '2019-09-28 22:55:51', 'context': '离开【邮政榆林市邮件】,下一站【西安中心】', 'location': ''}, {'time': '2019-09-28 20:59:12', 'ftime': '2019-09-28 20:59:12', 'context': '到达【邮政榆林市邮件】', 'location': ''}, {'time': '2019-09-28 17:17:43', 'ftime': '2019-09-28 17:17:43', 'context': '离开【神木店塔邮政支局】,下一站【榆林中心】', 'location': ''}, {'time': '2019-09-28 12:09:53', 'ftime': '2019-09-28 12:09:53', 'context': '【神木店塔邮政支局】已收件,揽投员:王红雄,电话:18091261642', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:22:11', 'context': '查无结果', 'ftime': '2019-09-24 10:22:11'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.073106</v>
+        <v>0.067677</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.008456</v>
+        <v>0.019617</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 06:43:01', 'ftime': '2019-09-29 06:43:01', 'context': '【合肥市】 快件离开 【合肥中转部】 已发往 【合肥包河六部】', 'location': ''}, {'time': '2019-09-29 05:05:32', 'ftime': '2019-09-29 05:05:32', 'context': '【合肥市】 快件已经到达 【合肥中转部】', 'location': ''}, {'time': '2019-09-28 05:47:52', 'ftime': '2019-09-28 05:47:52', 'context': '【广州市】 快件离开 【广州中心】 已发往 【合肥中转部】', 'location': ''}, {'time': '2019-09-28 05:44:37', 'ftime': '2019-09-28 05:44:37', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': ''}, {'time': '2019-09-28 03:28:35', 'ftime': '2019-09-28 03:28:35', 'context': '【广州市】 快件离开 【广州广园】 已发往 【合肥中转部】', 'location': ''}, {'time': '2019-09-28 02:21:42', 'ftime': '2019-09-28 02:21:42', 'context': '【广州市】 【广州广园】（020-37414075、020-37414074、020-37414073） 的 桂花岗中通（13288637551） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-27 16:19:52', 'ftime': '2018-09-27 16:19:52', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-09-27 12:44:07', 'ftime': '2018-09-27 12:44:07', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-28 20:00:00', 'location': None}, {'time': '2018-09-27 08:23:55', 'ftime': '2018-09-27 08:23:55', 'context': ' 配送员：陈建伟已出发，手机号：18160785571，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-26 09:41:20', 'ftime': '2018-09-26 09:41:20', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-27 20:00:00', 'location': None}, {'time': '2018-09-26 08:23:31', 'ftime': '2018-09-26 08:23:31', 'context': ' 配送员：陈建伟已出发，手机号：18160785571，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-25 13:31:57', 'ftime': '2018-09-25 13:31:57', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-26 21:00:00', 'location': None}, {'time': '2018-09-25 09:06:16', 'ftime': '2018-09-25 09:06:16', 'context': ' 配送员：陈建伟已出发，手机号：18160785571，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-24 19:11:28', 'ftime': '2018-09-24 19:11:28', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-25 20:00:00', 'location': None}, {'time': '2018-09-24 05:54:34', 'ftime': '2018-09-24 05:54:34', 'context': ' 配送员：江玮已出发，手机号：15798012882，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-23 20:49:54', 'ftime': '2018-09-23 20:49:54', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-24 13:00:00', 'location': None}, {'time': '2018-09-23 20:49:45', 'ftime': '2018-09-23 20:49:45', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-24 13:00:00', 'location': None}, {'time': '2018-09-23 20:43:39', 'ftime': '2018-09-23 20:43:39', 'context': ' 配送员：江玮已出发，手机号：15798012882，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-23 14:07:44', 'ftime': '2018-09-23 14:07:44', 'context': ' 取件任务分配给抚州乐安站', 'location': None}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07160999999999999</v>
+        <v>0.07502200000000001</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.014446</v>
+        <v>0.012755</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-27 10:07:08', 'context': '查无结果', 'ftime': '2019-09-27 10:07:08'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 10:22:11', 'context': '查无结果', 'ftime': '2019-09-15 10:22:11'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.06941700000000001</v>
+        <v>0.063751</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.069949</v>
+        <v>0.016259</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-21 10:07:08', 'context': '查无结果', 'ftime': '2019-09-21 10:07:08'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-10-29 14:20:50', 'ftime': '2018-10-29 14:20:50', 'context': '[沈阳市]沈阳市【沈阳大东十九部】，保利香槟国际西门左侧 已签收', 'location': None}, {'time': '2018-10-29 13:56:15', 'ftime': '2018-10-29 13:56:15', 'context': '[沈阳市]沈阳市【沈阳大东十九部】，【王洋/13478153322】正在派件', 'location': None}, {'time': '2018-10-29 13:38:04', 'ftime': '2018-10-29 13:38:04', 'context': '[沈阳市]到沈阳市【沈阳大东十九部】', 'location': None}, {'time': '2018-10-29 09:50:27', 'ftime': '2018-10-29 09:50:27', 'context': '[沈阳市]沈阳市【沈阳转运中心】，正发往【沈阳大东十九部】', 'location': None}, {'time': '2018-10-29 08:51:23', 'ftime': '2018-10-29 08:51:23', 'context': '[沈阳市]到沈阳市【沈阳转运中心】', 'location': None}, {'time': '2018-10-27 21:22:45', 'ftime': '2018-10-27 21:22:45', 'context': '[金华市]金华市【金华转运中心】，正发往【沈阳转运中心】', 'location': None}, {'time': '2018-10-27 19:08:38', 'ftime': '2018-10-27 19:08:38', 'context': '[金华市]到金华市【金华转运中心】', 'location': None}, {'time': '2018-10-27 12:34:30', 'ftime': '2018-10-27 12:34:30', 'context': '[金华市]到金华市【东阳南马镇集货点】', 'location': None}, {'time': '2018-10-27 11:15:33', 'ftime': '2018-10-27 11:15:33', 'context': '[金华市]金华市【东阳南马分部-优质客户】，【夏景高/0579-86920982】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.065063</v>
+        <v>0.070829</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.008769000000000001</v>
+        <v>0.013998</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 17:12:53', 'ftime': '2019-09-28 17:12:53', 'context': '货物已完成分拣，离开【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-28 17:08:34', 'ftime': '2019-09-28 17:08:34', 'context': '货物已到达【成都青白江分拣中心】', 'location': ''}, {'time': '2019-09-27 19:40:17', 'ftime': '2019-09-27 19:40:17', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 19:40:17', 'ftime': '2019-09-27 19:40:17', 'context': '配送员杨启已经揽收完成', 'location': ''}, {'time': '2019-09-27 19:09:19', 'ftime': '2019-09-27 19:09:19', 'context': '揽收任务已分配给杨启,配送员电话18884162771', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-25 13:29:19', 'ftime': '2019-09-25 13:29:19', 'context': '【抚顺市】 【抚顺】（024-52675555） 的 公司客户金玉（18641373759） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.069184</v>
+        <v>0.068716</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.013263</v>
+        <v>0.0101</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-28 22:05:38', 'ftime': '2019-09-28 22:05:38', 'context': '南京市 离开【国际大宗收寄中心】,下一站【南京国际】', 'location': '国际大宗收寄中心'}, {'time': '2019-09-28 17:51:54', 'ftime': '2019-09-28 17:51:54', 'context': '南京市 【国际大宗收寄中心】已收件,揽投员:杨峰', 'location': '国际大宗收寄中心'}, {'time': '2019-09-27 00:39:13', 'ftime': '2019-09-27 00:39:13', 'context': '物流订单已创建(WISH邮平台)', 'location': 'null'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 10:22:11', 'context': '查无结果', 'ftime': '2019-09-26 10:22:11'}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.07134799999999999</v>
+        <v>0.066569</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009179</v>
+        <v>0.009861999999999999</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-07 10:07:08', 'context': '查无结果', 'ftime': '2019-09-07 10:07:08'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:20:35', 'ftime': '2019-09-29 05:20:35', 'context': '江苏无锡中转部-已装袋发往-江苏南通转运中心', 'location': ''}, {'time': '2019-09-29 05:20:35', 'ftime': '2019-09-29 05:20:35', 'context': '江苏无锡中转部-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 05:17:10', 'ftime': '2019-09-29 05:17:10', 'context': '已到达-江苏无锡中转部', 'location': ''}, {'time': '2019-09-29 05:17:10', 'ftime': '2019-09-29 05:17:10', 'context': '快件已在【江苏无锡中转部】进行卸车，扫描员【卸货口6】', 'location': ''}, {'time': '2019-09-28 05:47:57', 'ftime': '2019-09-28 05:47:57', 'context': '广东广州营溪分拨中心-已装袋发往-江苏无锡中转部', 'location': ''}, {'time': '2019-09-28 05:47:57', 'ftime': '2019-09-28 05:47:57', 'context': '广东广州营溪分拨中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 05:37:55', 'ftime': '2019-09-28 05:37:55', 'context': '已到达-广东广州营溪分拨中心', 'location': ''}, {'time': '2019-09-28 04:20:43', 'ftime': '2019-09-28 04:20:43', 'context': '广东广州白云集散中心-已装袋发往-广东广州营溪分拨中心', 'location': ''}, {'time': '2019-09-28 04:20:43', 'ftime': '2019-09-28 04:20:43', 'context': '广东广州白云集散中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 03:05:04', 'ftime': '2019-09-28 03:05:04', 'context': '广东广州白云集散中心-已发往-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 03:05:04', 'ftime': '2019-09-28 03:05:04', 'context': '广东广州白云集散中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 02:41:21', 'ftime': '2019-09-28 02:41:21', 'context': '已到达-广东广州白云集散中心', 'location': ''}, {'time': '2019-09-27 20:25:18', 'ftime': '2019-09-27 20:25:18', 'context': '广东广州柯木塱分部-陈胜章(15820935232)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.14076</v>
+        <v>0.077033</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010414</v>
+        <v>0.010123</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-28 17:39:15', 'ftime': '2019-09-28 17:39:15', 'context': '订单已再投，再投原因：【开箱验货拒收】，下一次预计派送时间 2019-09-29 17:39:15', 'location': ''}, {'time': '2019-09-28 16:03:19', 'ftime': '2019-09-28 16:03:19', 'context': '配送员开始配送，请您准备收货，配送员，陈居汕，手机号，17687372815', 'location': ''}, {'time': '2019-09-28 10:01:51', 'ftime': '2019-09-28 10:01:51', 'context': '订单已再投，再投原因：【要求拒收】，下一次预计派送时间 2019-09-29 10:01:51', 'location': ''}, {'time': '2019-09-28 08:58:19', 'ftime': '2019-09-28 08:58:19', 'context': '配送员开始配送，请您准备收货，配送员，钱露方，手机号，17687034965', 'location': ''}, {'time': '2019-09-28 07:11:54', 'ftime': '2019-09-28 07:11:54', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-28 07:11:53', 'ftime': '2019-09-28 07:11:53', 'context': '货物已到达【杭州交通营业部】', 'location': ''}, {'time': '2019-09-28 04:07:19', 'ftime': '2019-09-28 04:07:19', 'context': '货物已完成分拣，离开【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 23:04:19', 'ftime': '2019-09-27 23:04:19', 'context': '货物已到达【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 21:09:32', 'ftime': '2019-09-27 21:09:32', 'context': '货物已到达【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 14:00:19', 'ftime': '2019-09-27 14:00:19', 'context': '订单已再投，再投原因：【超站点配送范围5公里】，下一次预计派送时间 2019-09-28 10:00:00', 'location': ''}, {'time': '2019-09-27 13:49:28', 'ftime': '2019-09-27 13:49:28', 'context': '配送员开始配送，请您准备收货，配送员，李杨，手机号，18151171861', 'location': ''}, {'time': '2019-09-27 07:51:04', 'ftime': '2019-09-27 07:51:04', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-27 07:51:03', 'ftime': '2019-09-27 07:51:03', 'context': '货物已到达【杭州三墩营业部】', 'location': ''}, {'time': '2019-09-27 04:26:38', 'ftime': '2019-09-27 04:26:38', 'context': '货物已完成分拣，离开【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 01:55:27', 'ftime': '2019-09-27 01:55:27', 'context': '货物已到达【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-27 01:49:01', 'ftime': '2019-09-27 01:49:01', 'context': '货物已到达【杭州亚一分拣中心】', 'location': ''}, {'time': '2019-09-26 18:22:13', 'ftime': '2019-09-26 18:22:13', 'context': '货物已完成分拣，离开【昆山宇培分拣中心】', 'location': ''}, {'time': '2019-09-26 18:19:21', 'ftime': '2019-09-26 18:19:21', 'context': '货物已到达【昆山宇培分拣中心】', 'location': ''}, {'time': '2019-09-25 23:50:52', 'ftime': '2019-09-25 23:50:52', 'context': '货物已完成分拣，离开【郑州外单分拨中心】', 'location': ''}, {'time': '2019-09-25 23:48:44', 'ftime': '2019-09-25 23:48:44', 'context': '货物已到达【郑州外单分拨中心】', 'location': ''}, {'time': '2019-09-25 18:48:22', 'ftime': '2019-09-25 18:48:22', 'context': '货物已完成分拣，离开【鹤壁中转场】', 'location': ''}, {'time': '2019-09-25 17:06:05', 'ftime': '2019-09-25 17:06:05', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-25 17:06:05', 'ftime': '2019-09-25 17:06:05', 'context': '配送员秦铭坤已经揽收完成', 'location': ''}, {'time': '2019-09-25 13:36:13', 'ftime': '2019-09-25 13:36:13', 'context': '揽收任务已分配给秦铭坤,配送员电话18567208799', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-18 15:34:17', 'ftime': '2019-09-18 15:34:17', 'context': '[自贡市]【自贡市】您的派件已送达至【百世邻里】童寺镇服务站，请尽快前往童寺永响超市对面领取您的包裹，联系电话:13198201183', 'location': '自贡市'}, {'time': '2019-09-18 15:34:17', 'ftime': '2019-09-18 15:34:17', 'context': '[自贡市]派件送达【百世邻里】童寺镇服务站，请前往童寺永响超市对面领取您的包裹，联系电话：13198201183', 'location': '自贡市'}, {'time': '2019-09-18 08:40:22', 'ftime': '2019-09-18 08:40:22', 'context': '[自贡市]自贡市【富顺】，【黄纯富/13198201183】正在派件', 'location': '自贡市'}, {'time': '2019-09-18 08:26:26', 'ftime': '2019-09-18 08:26:26', 'context': '[自贡市]到自贡市【富顺】', 'location': '自贡市'}, {'time': '2019-09-17 16:04:17', 'ftime': '2019-09-17 16:04:17', 'context': '[自贡市]自贡市【JM自贡集散仓A】，正发往【富顺】', 'location': '自贡市'}, {'time': '2019-09-17 16:03:49', 'ftime': '2019-09-17 16:03:49', 'context': '[自贡市]到自贡市【JM自贡集散仓A】', 'location': '自贡市'}, {'time': '2019-09-17 09:36:43', 'ftime': '2019-09-17 09:36:43', 'context': '[重庆市]重庆市【重庆转运中心】，正发往【JM自贡集散仓A】', 'location': '重庆市'}, {'time': '2019-09-17 08:09:21', 'ftime': '2019-09-17 08:09:21', 'context': '[重庆市]到重庆市【重庆转运中心】', 'location': '重庆市'}, {'time': '2019-09-15 23:42:38', 'ftime': '2019-09-15 23:42:38', 'context': '[苏州市]苏州市【无锡转运中心】，正发往【重庆转运中心】', 'location': '苏州市'}, {'time': '2019-09-15 02:00:58', 'ftime': '2019-09-15 02:00:58', 'context': '[苏州市]苏州市【无锡转运中心】，正发往【重庆转运中心】', 'location': '苏州市'}, {'time': '2019-09-15 01:59:18', 'ftime': '2019-09-15 01:59:18', 'context': '[苏州市]到苏州市【无锡转运中心】', 'location': '苏州市'}, {'time': '2019-09-14 21:29:41', 'ftime': '2019-09-14 21:29:41', 'context': '[苏州市]到苏州市【常熟元和分部集货点】', 'location': '苏州市'}, {'time': '2019-09-14 18:40:45', 'ftime': '2019-09-14 18:40:45', 'context': '[苏州市]苏州市【常熟元和分部】，【金谢芸/15162572291】已揽收', 'location': '苏州市'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.072364</v>
+        <v>0.071771</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '21'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009526</v>
+        <v>0.009240999999999999</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (2).xlsx
+++ b/data_excel/接口测试用例_ (2).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-18 10:22:10', 'context': '查无结果', 'ftime': '2019-09-18 10:22:10'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 10:28:21', 'context': '查无结果', 'ftime': '2019-09-15 10:28:21'}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.070561</v>
+        <v>0.0674</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.010021</v>
+        <v>0.009648</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-24 10:22:11', 'context': '查无结果', 'ftime': '2019-09-24 10:22:11'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:28:21', 'context': '查无结果', 'ftime': '2019-09-19 10:28:21'}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.067677</v>
+        <v>0.067173</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.019617</v>
+        <v>0.010872</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-27 16:19:52', 'ftime': '2018-09-27 16:19:52', 'context': ' 取件单已经终止', 'location': None}, {'time': '2018-09-27 12:44:07', 'ftime': '2018-09-27 12:44:07', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-28 20:00:00', 'location': None}, {'time': '2018-09-27 08:23:55', 'ftime': '2018-09-27 08:23:55', 'context': ' 配送员：陈建伟已出发，手机号：18160785571，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-26 09:41:20', 'ftime': '2018-09-26 09:41:20', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-27 20:00:00', 'location': None}, {'time': '2018-09-26 08:23:31', 'ftime': '2018-09-26 08:23:31', 'context': ' 配送员：陈建伟已出发，手机号：18160785571，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-25 13:31:57', 'ftime': '2018-09-25 13:31:57', 'context': ' 上门取件失败，准备再次取件，原因：其它原因，备注：再投无备注下次再投时间:2018-09-26 21:00:00', 'location': None}, {'time': '2018-09-25 09:06:16', 'ftime': '2018-09-25 09:06:16', 'context': ' 配送员：陈建伟已出发，手机号：18160785571，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-24 19:11:28', 'ftime': '2018-09-24 19:11:28', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-25 20:00:00', 'location': None}, {'time': '2018-09-24 05:54:34', 'ftime': '2018-09-24 05:54:34', 'context': ' 配送员：江玮已出发，手机号：15798012882，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-23 20:49:54', 'ftime': '2018-09-23 20:49:54', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-24 13:00:00', 'location': None}, {'time': '2018-09-23 20:49:45', 'ftime': '2018-09-23 20:49:45', 'context': ' 上门取件失败，准备再次取件，原因：客户更改配送时间，备注：再投无备注下次再投时间:2018-09-24 13:00:00', 'location': None}, {'time': '2018-09-23 20:43:39', 'ftime': '2018-09-23 20:43:39', 'context': ' 配送员：江玮已出发，手机号：15798012882，请您准备好全套商品、发票及包装，感谢您的配合！', 'location': None}, {'time': '2018-09-23 14:07:44', 'ftime': '2018-09-23 14:07:44', 'context': ' 取件任务分配给抚州乐安站', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 10:28:22', 'context': '查无结果', 'ftime': '2019-08-31 10:28:22'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.07502200000000001</v>
+        <v>0.06705</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -887,7 +887,7 @@
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.012755</v>
+        <v>0.009507</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 10:22:11', 'context': '查无结果', 'ftime': '2019-09-15 10:22:11'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 10:28:22', 'context': '查无结果', 'ftime': '2019-08-31 10:28:22'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.063751</v>
+        <v>0.067167</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.016259</v>
+        <v>0.010579</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-10-29 14:20:50', 'ftime': '2018-10-29 14:20:50', 'context': '[沈阳市]沈阳市【沈阳大东十九部】，保利香槟国际西门左侧 已签收', 'location': None}, {'time': '2018-10-29 13:56:15', 'ftime': '2018-10-29 13:56:15', 'context': '[沈阳市]沈阳市【沈阳大东十九部】，【王洋/13478153322】正在派件', 'location': None}, {'time': '2018-10-29 13:38:04', 'ftime': '2018-10-29 13:38:04', 'context': '[沈阳市]到沈阳市【沈阳大东十九部】', 'location': None}, {'time': '2018-10-29 09:50:27', 'ftime': '2018-10-29 09:50:27', 'context': '[沈阳市]沈阳市【沈阳转运中心】，正发往【沈阳大东十九部】', 'location': None}, {'time': '2018-10-29 08:51:23', 'ftime': '2018-10-29 08:51:23', 'context': '[沈阳市]到沈阳市【沈阳转运中心】', 'location': None}, {'time': '2018-10-27 21:22:45', 'ftime': '2018-10-27 21:22:45', 'context': '[金华市]金华市【金华转运中心】，正发往【沈阳转运中心】', 'location': None}, {'time': '2018-10-27 19:08:38', 'ftime': '2018-10-27 19:08:38', 'context': '[金华市]到金华市【金华转运中心】', 'location': None}, {'time': '2018-10-27 12:34:30', 'ftime': '2018-10-27 12:34:30', 'context': '[金华市]到金华市【东阳南马镇集货点】', 'location': None}, {'time': '2018-10-27 11:15:33', 'ftime': '2018-10-27 11:15:33', 'context': '[金华市]金华市【东阳南马分部-优质客户】，【夏景高/0579-86920982】已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 17:24:01', 'ftime': '2019-09-23 17:24:01', 'context': '[Dallas, TX]Delivered', 'location': 'Dallas, TX'}, {'time': '2019-09-20 12:45:00', 'ftime': '2019-09-20 12:45:00', 'context': '[HUTCHINS, TX]Arrived at FedEx location', 'location': 'HUTCHINS, TX'}, {'time': '2019-09-19 23:14:05', 'ftime': '2019-09-19 23:14:05', 'context': '[CASA BLANCA, NM]In transit', 'location': 'CASA BLANCA, NM'}, {'time': '2019-09-19 10:12:48', 'ftime': '2019-09-19 10:12:48', 'context': '[BLOOMINGTON, CA]Departed FedEx location', 'location': 'BLOOMINGTON, CA'}, {'time': '2019-09-19 05:13:00', 'ftime': '2019-09-19 05:13:00', 'context': '[BLOOMINGTON, CA]Arrived at FedEx location', 'location': 'BLOOMINGTON, CA'}, {'time': '2019-09-19 01:39:49', 'ftime': '2019-09-19 01:39:49', 'context': '[CARSON, CA]Departed FedEx location', 'location': 'CARSON, CA'}, {'time': '2019-09-19 00:12:00', 'ftime': '2019-09-19 00:12:00', 'context': '[CARSON, CA]Arrived at FedEx location', 'location': 'CARSON, CA'}, {'time': '2019-09-18 19:21:00', 'ftime': '2019-09-18 19:21:00', 'context': '[CITY OF INDUSTRY, CA]Picked up', 'location': 'CITY OF INDUSTRY, CA'}, {'time': '2019-09-11 09:45:00', 'ftime': '2019-09-11 09:45:00', 'context': 'Shipment information sent to FedEx', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.070829</v>
+        <v>0.07285</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.013998</v>
+        <v>0.010627</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'B00', 'com': 'zhongtong', 'status': '200', 'state': '1', 'data': [{'time': '2019-09-25 13:29:19', 'ftime': '2019-09-25 13:29:19', 'context': '【抚顺市】 【抚顺】（024-52675555） 的 公司客户金玉（18641373759） 已揽收', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-14 21:00:53', 'ftime': '2018-11-14 21:00:53', 'context': '客户 签收人 :马勇 已签收 感谢使用圆通速递，期待再次为您服务', 'location': None}, {'time': '2018-11-14 20:59:23', 'ftime': '2018-11-14 20:59:23', 'context': '【湖北省黄石市三部公司】 派件人 :邢晓红 派件中 派件员电话15826971689', 'location': None}, {'time': '2018-11-14 05:57:39', 'ftime': '2018-11-14 05:57:39', 'context': '【湖北省黄石市三部公司】 已收入', 'location': None}, {'time': '2018-11-13 17:42:16', 'ftime': '2018-11-13 17:42:16', 'context': '【武昌转运中心】 已发出 下一站 【湖北省黄石市三部公司】', 'location': None}, {'time': '2018-11-13 17:39:38', 'ftime': '2018-11-13 17:39:38', 'context': '【武昌转运中心】 已收入', 'location': None}, {'time': '2018-11-13 17:21:13', 'ftime': '2018-11-13 17:21:13', 'context': '【武昌转运中心】 已收入', 'location': None}, {'time': '2018-11-13 00:02:17', 'ftime': '2018-11-13 00:02:17', 'context': '【深圳转运中心】 已发出 下一站 【武昌转运中心】', 'location': None}, {'time': '2018-11-13 00:00:28', 'ftime': '2018-11-13 00:00:28', 'context': '【深圳转运中心】 已收入', 'location': None}, {'time': '2018-11-12 17:34:40', 'ftime': '2018-11-12 17:34:40', 'context': '【广东省深圳市宝安区机场】 已发出 下一站 【深圳转运中心】', 'location': None}, {'time': '2018-11-12 17:22:17', 'ftime': '2018-11-12 17:22:17', 'context': '【广东省深圳市宝安区机场公司】 已打包', 'location': None}, {'time': '2018-11-12 16:59:13', 'ftime': '2018-11-12 16:59:13', 'context': '【广东省深圳市宝安区机场公司】 已收件', 'location': None}, {'time': '2018-11-12 15:08:19', 'ftime': '2018-11-12 15:08:19', 'context': '【广东省深圳市宝安区机场公司】 已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.068716</v>
+        <v>0.06737899999999999</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.0101</v>
+        <v>0.010599</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-26 10:22:11', 'context': '查无结果', 'ftime': '2019-09-26 10:22:11'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 04:49:41', 'ftime': '2019-09-29 04:49:41', 'context': '[南昌市]离开【南昌中心】,下一站【重庆中心】（经转）', 'location': ''}, {'time': '2019-09-28 03:39:48', 'ftime': '2019-09-28 03:39:48', 'context': '[南昌市]到达【南昌中心】（经转）', 'location': ''}, {'time': '2019-09-27 21:05:33', 'ftime': '2019-09-27 21:05:33', 'context': '离开【邮政景德镇市邮件】,下一站【南昌中心】', 'location': ''}, {'time': '2019-09-27 19:46:37', 'ftime': '2019-09-27 19:46:37', 'context': '到达【邮政景德镇市邮件】', 'location': ''}, {'time': '2019-09-27 17:49:39', 'ftime': '2019-09-27 17:49:39', 'context': '离开【景德镇市城中揽投部】,下一站【景德中心】', 'location': ''}, {'time': '2019-09-27 15:19:28', 'ftime': '2019-09-27 15:19:28', 'context': '【景德镇市城中揽投部】已收件,揽投员:郑茂林,电话:18879838722', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.066569</v>
+        <v>0.073842</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1338,7 +1338,7 @@
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.009861999999999999</v>
+        <v>0.010719</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 05:20:35', 'ftime': '2019-09-29 05:20:35', 'context': '江苏无锡中转部-已装袋发往-江苏南通转运中心', 'location': ''}, {'time': '2019-09-29 05:20:35', 'ftime': '2019-09-29 05:20:35', 'context': '江苏无锡中转部-已进行装车扫描', 'location': ''}, {'time': '2019-09-29 05:17:10', 'ftime': '2019-09-29 05:17:10', 'context': '已到达-江苏无锡中转部', 'location': ''}, {'time': '2019-09-29 05:17:10', 'ftime': '2019-09-29 05:17:10', 'context': '快件已在【江苏无锡中转部】进行卸车，扫描员【卸货口6】', 'location': ''}, {'time': '2019-09-28 05:47:57', 'ftime': '2019-09-28 05:47:57', 'context': '广东广州营溪分拨中心-已装袋发往-江苏无锡中转部', 'location': ''}, {'time': '2019-09-28 05:47:57', 'ftime': '2019-09-28 05:47:57', 'context': '广东广州营溪分拨中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 05:37:55', 'ftime': '2019-09-28 05:37:55', 'context': '已到达-广东广州营溪分拨中心', 'location': ''}, {'time': '2019-09-28 04:20:43', 'ftime': '2019-09-28 04:20:43', 'context': '广东广州白云集散中心-已装袋发往-广东广州营溪分拨中心', 'location': ''}, {'time': '2019-09-28 04:20:43', 'ftime': '2019-09-28 04:20:43', 'context': '广东广州白云集散中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 03:05:04', 'ftime': '2019-09-28 03:05:04', 'context': '广东广州白云集散中心-已发往-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 03:05:04', 'ftime': '2019-09-28 03:05:04', 'context': '广东广州白云集散中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 02:41:21', 'ftime': '2019-09-28 02:41:21', 'context': '已到达-广东广州白云集散中心', 'location': ''}, {'time': '2019-09-27 20:25:18', 'ftime': '2019-09-27 20:25:18', 'context': '广东广州柯木塱分部-陈胜章(15820935232)-已收件', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:42:03', 'ftime': '2019-09-28 19:42:03', 'context': '货物已完成分拣，离开【西安外单分拣中心】', 'location': ''}, {'time': '2019-09-27 19:57:17', 'ftime': '2019-09-27 19:57:17', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 19:57:17', 'ftime': '2019-09-27 19:57:17', 'context': '配送员张进县已经揽收完成', 'location': ''}, {'time': '2019-09-26 16:23:14', 'ftime': '2019-09-26 16:23:14', 'context': '揽收任务已分配给王彦彦,配送员电话13919514655', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.077033</v>
+        <v>0.069268</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.010123</v>
+        <v>0.00933</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-18 15:34:17', 'ftime': '2019-09-18 15:34:17', 'context': '[自贡市]【自贡市】您的派件已送达至【百世邻里】童寺镇服务站，请尽快前往童寺永响超市对面领取您的包裹，联系电话:13198201183', 'location': '自贡市'}, {'time': '2019-09-18 15:34:17', 'ftime': '2019-09-18 15:34:17', 'context': '[自贡市]派件送达【百世邻里】童寺镇服务站，请前往童寺永响超市对面领取您的包裹，联系电话：13198201183', 'location': '自贡市'}, {'time': '2019-09-18 08:40:22', 'ftime': '2019-09-18 08:40:22', 'context': '[自贡市]自贡市【富顺】，【黄纯富/13198201183】正在派件', 'location': '自贡市'}, {'time': '2019-09-18 08:26:26', 'ftime': '2019-09-18 08:26:26', 'context': '[自贡市]到自贡市【富顺】', 'location': '自贡市'}, {'time': '2019-09-17 16:04:17', 'ftime': '2019-09-17 16:04:17', 'context': '[自贡市]自贡市【JM自贡集散仓A】，正发往【富顺】', 'location': '自贡市'}, {'time': '2019-09-17 16:03:49', 'ftime': '2019-09-17 16:03:49', 'context': '[自贡市]到自贡市【JM自贡集散仓A】', 'location': '自贡市'}, {'time': '2019-09-17 09:36:43', 'ftime': '2019-09-17 09:36:43', 'context': '[重庆市]重庆市【重庆转运中心】，正发往【JM自贡集散仓A】', 'location': '重庆市'}, {'time': '2019-09-17 08:09:21', 'ftime': '2019-09-17 08:09:21', 'context': '[重庆市]到重庆市【重庆转运中心】', 'location': '重庆市'}, {'time': '2019-09-15 23:42:38', 'ftime': '2019-09-15 23:42:38', 'context': '[苏州市]苏州市【无锡转运中心】，正发往【重庆转运中心】', 'location': '苏州市'}, {'time': '2019-09-15 02:00:58', 'ftime': '2019-09-15 02:00:58', 'context': '[苏州市]苏州市【无锡转运中心】，正发往【重庆转运中心】', 'location': '苏州市'}, {'time': '2019-09-15 01:59:18', 'ftime': '2019-09-15 01:59:18', 'context': '[苏州市]到苏州市【无锡转运中心】', 'location': '苏州市'}, {'time': '2019-09-14 21:29:41', 'ftime': '2019-09-14 21:29:41', 'context': '[苏州市]到苏州市【常熟元和分部集货点】', 'location': '苏州市'}, {'time': '2019-09-14 18:40:45', 'ftime': '2019-09-14 18:40:45', 'context': '[苏州市]苏州市【常熟元和分部】，【金谢芸/15162572291】已揽收', 'location': '苏州市'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-27 20:25:44', 'ftime': '2019-09-27 20:25:44', 'context': '订单已再投，再投原因：【客户更改配送时间】，下一次预计派送时间 2019-09-28 21:00:00', 'location': ''}, {'time': '2019-09-27 07:58:32', 'ftime': '2019-09-27 07:58:32', 'context': '配送员开始配送，请您准备收货，配送员，王卫国，手机号，15769219193', 'location': ''}, {'time': '2019-09-27 07:54:24', 'ftime': '2019-09-27 07:54:24', 'context': '配送员开始配送，请您准备收货，配送员，王卫国，手机号，15769219193', 'location': ''}, {'time': '2019-09-27 06:46:50', 'ftime': '2019-09-27 06:46:50', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-27 06:46:49', 'ftime': '2019-09-27 06:46:49', 'context': '货物已到达【宝鸡钛城营业部】', 'location': ''}, {'time': '2019-09-27 04:33:54', 'ftime': '2019-09-27 04:33:54', 'context': '货物已完成分拣，离开【宝鸡中转场】', 'location': ''}, {'time': '2019-09-26 23:24:22', 'ftime': '2019-09-26 23:24:22', 'context': '货物已完成分拣，离开【西安亚一分拣中心】', 'location': ''}, {'time': '2019-09-26 23:12:31', 'ftime': '2019-09-26 23:12:31', 'context': '货物已到达【西安亚一分拣中心】', 'location': ''}, {'time': '2019-09-26 19:16:52', 'ftime': '2019-09-26 19:16:52', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-26 19:16:52', 'ftime': '2019-09-26 19:16:52', 'context': '配送员郭华已经揽收完成', 'location': ''}, {'time': '2019-09-26 19:01:09', 'ftime': '2019-09-26 19:01:09', 'context': '配送员郭华操作再取，再取原因为：客户更改揽收时间,下次预计揽收时间为09月26日20:00-21:00', 'location': ''}, {'time': '2019-09-26 17:20:14', 'ftime': '2019-09-26 17:20:14', 'context': '揽收任务已分配给郭华,配送员电话16670451128或63017506', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.071771</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1568,7 +1568,7 @@
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.009240999999999999</v>
+        <v>0.010441</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (2).xlsx
+++ b/data_excel/接口测试用例_ (2).xlsx
@@ -610,11 +610,11 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 10:28:21', 'context': '查无结果', 'ftime': '2019-09-15 10:28:21'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-15 11:08:22', 'ftime': '2018-09-15 11:08:22', 'context': '[佛山市]佛山市【佛山南海区七部】，恒大御景湾大门内3号丰巢柜 已签收', 'location': None}, {'time': '2018-09-15 11:07:06', 'ftime': '2018-09-15 11:07:06', 'context': '[佛山市]佛山市【佛山南海区七部】，【赵宣波/15989975814】正在派件', 'location': None}, {'time': '2018-09-15 08:18:25', 'ftime': '2018-09-15 08:18:25', 'context': '[佛山市]到佛山市【佛山南海区七部】', 'location': None}, {'time': '2018-09-15 03:55:45', 'ftime': '2018-09-15 03:55:45', 'context': '[佛山市]佛山市【佛山转运中心】，正发往【佛山南海区七部】', 'location': None}, {'time': '2018-09-15 01:45:46', 'ftime': '2018-09-15 01:45:46', 'context': '[佛山市]到佛山市【佛山转运中心】', 'location': None}, {'time': '2018-09-15 01:39:11', 'ftime': '2018-09-15 01:39:11', 'context': '[广州市]广州市【广州转运中心】，正发往【佛山转运中心】', 'location': None}, {'time': '2018-09-15 00:40:17', 'ftime': '2018-09-15 00:40:17', 'context': '[广州市]到广州市【广州转运中心】', 'location': None}, {'time': '2018-09-14 02:12:41', 'ftime': '2018-09-14 02:12:41', 'context': '[上海市]上海市【上海转运中心】，正发往【广州转运中心】', 'location': None}, {'time': '2018-09-14 00:13:08', 'ftime': '2018-09-14 00:13:08', 'context': '[上海市]到上海市【上海转运中心】', 'location': None}, {'time': '2018-09-13 16:23:36', 'ftime': '2018-09-13 16:23:36', 'context': '[上海市]上海市【松江】，【九亭公司/021-33522583】已揽收', 'location': None}]}</t>
         </is>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.0674</v>
+        <v>0.069656</v>
       </c>
       <c r="J2" s="3" t="n">
         <v>200</v>
@@ -671,11 +671,11 @@
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.009648</v>
+        <v>0.009259999999999999</v>
       </c>
       <c r="J3" s="3" t="n">
         <v>200</v>
@@ -725,11 +725,11 @@
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-19 10:28:21', 'context': '查无结果', 'ftime': '2019-09-19 10:28:21'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 15:06:34', 'ftime': '2019-09-29 15:06:34', 'context': '山东济南历城五部公司-鲍山花园北区17号楼(13573772848)-派件中', 'location': ''}, {'time': '2019-09-29 14:21:34', 'ftime': '2019-09-29 14:21:34', 'context': '已到达-山东济南历城五部公司', 'location': ''}, {'time': '2019-09-29 09:37:24', 'ftime': '2019-09-29 09:37:24', 'context': '山东济南转运中心-已发往-山东济南历城五部公司', 'location': ''}, {'time': '2019-09-29 09:22:43', 'ftime': '2019-09-29 09:22:43', 'context': '已到达-山东济南转运中心', 'location': ''}, {'time': '2019-09-28 04:18:12', 'ftime': '2019-09-28 04:18:12', 'context': '广东广州转运中心-已装袋发往-山东济南转运中心', 'location': ''}, {'time': '2019-09-28 04:18:12', 'ftime': '2019-09-28 04:18:12', 'context': '广东广州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 04:02:17', 'ftime': '2019-09-28 04:02:17', 'context': '已到达-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 01:52:41', 'ftime': '2019-09-28 01:52:41', 'context': '广东广州大源集散中心-已发往-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 01:52:41', 'ftime': '2019-09-28 01:52:41', 'context': '广东广州大源集散中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 01:52:37', 'ftime': '2019-09-28 01:52:37', 'context': '广东广州大源集散中心-已发往-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 01:45:13', 'ftime': '2019-09-28 01:45:13', 'context': '已到达-广东广州大源集散中心', 'location': ''}, {'time': '2019-09-28 00:08:05', 'ftime': '2019-09-28 00:08:05', 'context': '广东广州永泰公司-广州包打包云仓(17520698680)-已收件', 'location': ''}, {'time': '2019-09-27 20:40:35', 'ftime': '2019-09-27 20:40:35', 'context': '广东广州永泰公司-广州包打包云仓(17520698680)-已收件', 'location': ''}]}</t>
         </is>
       </c>
       <c r="I4" s="3" t="n">
-        <v>0.067173</v>
+        <v>0.069179</v>
       </c>
       <c r="J4" s="3" t="n">
         <v>200</v>
@@ -777,11 +777,11 @@
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I5" s="3" t="n">
-        <v>0.010872</v>
+        <v>0.011196</v>
       </c>
       <c r="J5" s="3" t="n">
         <v>200</v>
@@ -831,11 +831,11 @@
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 10:28:22', 'context': '查无结果', 'ftime': '2019-08-31 10:28:22'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 16:10:51', 'context': '查无结果', 'ftime': '2019-09-23 16:10:51'}]}</t>
         </is>
       </c>
       <c r="I6" s="3" t="n">
-        <v>0.06705</v>
+        <v>0.067981</v>
       </c>
       <c r="J6" s="3" t="n">
         <v>200</v>
@@ -883,11 +883,11 @@
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I7" s="3" t="n">
-        <v>0.009507</v>
+        <v>0.011867</v>
       </c>
       <c r="J7" s="3" t="n">
         <v>200</v>
@@ -937,11 +937,11 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-08-31 10:28:22', 'context': '查无结果', 'ftime': '2019-08-31 10:28:22'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:10:51', 'context': '查无结果', 'ftime': '2019-09-09 16:10:51'}]}</t>
         </is>
       </c>
       <c r="I8" s="3" t="n">
-        <v>0.067167</v>
+        <v>0.063759</v>
       </c>
       <c r="J8" s="3" t="n">
         <v>200</v>
@@ -989,11 +989,11 @@
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I9" s="3" t="n">
-        <v>0.010579</v>
+        <v>0.009637</v>
       </c>
       <c r="J9" s="3" t="n">
         <v>200</v>
@@ -1043,11 +1043,11 @@
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-23 17:24:01', 'ftime': '2019-09-23 17:24:01', 'context': '[Dallas, TX]Delivered', 'location': 'Dallas, TX'}, {'time': '2019-09-20 12:45:00', 'ftime': '2019-09-20 12:45:00', 'context': '[HUTCHINS, TX]Arrived at FedEx location', 'location': 'HUTCHINS, TX'}, {'time': '2019-09-19 23:14:05', 'ftime': '2019-09-19 23:14:05', 'context': '[CASA BLANCA, NM]In transit', 'location': 'CASA BLANCA, NM'}, {'time': '2019-09-19 10:12:48', 'ftime': '2019-09-19 10:12:48', 'context': '[BLOOMINGTON, CA]Departed FedEx location', 'location': 'BLOOMINGTON, CA'}, {'time': '2019-09-19 05:13:00', 'ftime': '2019-09-19 05:13:00', 'context': '[BLOOMINGTON, CA]Arrived at FedEx location', 'location': 'BLOOMINGTON, CA'}, {'time': '2019-09-19 01:39:49', 'ftime': '2019-09-19 01:39:49', 'context': '[CARSON, CA]Departed FedEx location', 'location': 'CARSON, CA'}, {'time': '2019-09-19 00:12:00', 'ftime': '2019-09-19 00:12:00', 'context': '[CARSON, CA]Arrived at FedEx location', 'location': 'CARSON, CA'}, {'time': '2019-09-18 19:21:00', 'ftime': '2019-09-18 19:21:00', 'context': '[CITY OF INDUSTRY, CA]Picked up', 'location': 'CITY OF INDUSTRY, CA'}, {'time': '2019-09-11 09:45:00', 'ftime': '2019-09-11 09:45:00', 'context': 'Shipment information sent to FedEx', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 16:10:51', 'context': '查无结果', 'ftime': '2019-09-15 16:10:51'}]}</t>
         </is>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.07285</v>
+        <v>0.076103</v>
       </c>
       <c r="J10" s="3" t="n">
         <v>200</v>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I11" s="3" t="n">
-        <v>0.010627</v>
+        <v>0.010426</v>
       </c>
       <c r="J11" s="3" t="n">
         <v>200</v>
@@ -1158,11 +1158,11 @@
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-11-14 21:00:53', 'ftime': '2018-11-14 21:00:53', 'context': '客户 签收人 :马勇 已签收 感谢使用圆通速递，期待再次为您服务', 'location': None}, {'time': '2018-11-14 20:59:23', 'ftime': '2018-11-14 20:59:23', 'context': '【湖北省黄石市三部公司】 派件人 :邢晓红 派件中 派件员电话15826971689', 'location': None}, {'time': '2018-11-14 05:57:39', 'ftime': '2018-11-14 05:57:39', 'context': '【湖北省黄石市三部公司】 已收入', 'location': None}, {'time': '2018-11-13 17:42:16', 'ftime': '2018-11-13 17:42:16', 'context': '【武昌转运中心】 已发出 下一站 【湖北省黄石市三部公司】', 'location': None}, {'time': '2018-11-13 17:39:38', 'ftime': '2018-11-13 17:39:38', 'context': '【武昌转运中心】 已收入', 'location': None}, {'time': '2018-11-13 17:21:13', 'ftime': '2018-11-13 17:21:13', 'context': '【武昌转运中心】 已收入', 'location': None}, {'time': '2018-11-13 00:02:17', 'ftime': '2018-11-13 00:02:17', 'context': '【深圳转运中心】 已发出 下一站 【武昌转运中心】', 'location': None}, {'time': '2018-11-13 00:00:28', 'ftime': '2018-11-13 00:00:28', 'context': '【深圳转运中心】 已收入', 'location': None}, {'time': '2018-11-12 17:34:40', 'ftime': '2018-11-12 17:34:40', 'context': '【广东省深圳市宝安区机场】 已发出 下一站 【深圳转运中心】', 'location': None}, {'time': '2018-11-12 17:22:17', 'ftime': '2018-11-12 17:22:17', 'context': '【广东省深圳市宝安区机场公司】 已打包', 'location': None}, {'time': '2018-11-12 16:59:13', 'ftime': '2018-11-12 16:59:13', 'context': '【广东省深圳市宝安区机场公司】 已收件', 'location': None}, {'time': '2018-11-12 15:08:19', 'ftime': '2018-11-12 15:08:19', 'context': '【广东省深圳市宝安区机场公司】 已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-22 18:54:08', 'ftime': '2019-09-22 18:54:08', 'context': '【2019-09-22 18:54:08】快件已被客户【廖签收,签收网点【湖南零陵】', 'location': '永州市'}, {'time': '2019-09-22 09:03:20', 'ftime': '2019-09-22 09:03:20', 'context': '【2019-09-22 09:03:20】快件已到达【湖南零陵】', 'location': '永州市'}, {'time': '2019-09-21 20:33:22', 'ftime': '2019-09-21 20:33:22', 'context': '【2019-09-21 20:33:22】快件在【永州中心】正发往【湖南零陵】', 'location': '永州市'}, {'time': '2019-09-21 16:42:43', 'ftime': '2019-09-21 16:42:43', 'context': '【2019-09-21 16:42:43】快件已到达【永州中心】', 'location': '永州市'}, {'time': '2019-09-20 21:25:32', 'ftime': '2019-09-20 21:25:32', 'context': '【2019-09-20 21:25:32】快件在【长沙分拨中心】正发往【永州中心】', 'location': '长沙市'}, {'time': '2019-09-20 00:16:51', 'ftime': '2019-09-20 00:16:51', 'context': '【2019-09-20 00:16:51】快件已到达【长沙分拨中心】', 'location': '长沙市'}, {'time': '2019-09-19 08:11:19', 'ftime': '2019-09-19 08:11:19', 'context': '【2019-09-19 08:11:19】快件在【广州分拨中心】正发往【长沙分拨中心】', 'location': '广州市'}, {'time': '2019-09-19 07:48:10', 'ftime': '2019-09-19 07:48:10', 'context': '【2019-09-19 07:48:10】快件已到达【广州分拨中心】', 'location': '广州市'}, {'time': '2019-09-19 02:20:45', 'ftime': '2019-09-19 02:20:45', 'context': '【2019-09-19 02:20:45】快件在【广州黄埔分拨中心】正发往【广州分拨中心】', 'location': '广州市'}, {'time': '2019-09-19 00:25:00', 'ftime': '2019-09-19 00:25:00', 'context': '【2019-09-19 00:25:00】快件已到达【广州黄埔分拨中心】', 'location': '广州市'}, {'time': '2019-09-18 21:41:38', 'ftime': '2019-09-18 21:41:38', 'context': '【2019-09-18 21:41:38】快件在【广州新塘凤凰城】正发往【广州黄埔分拨中心】', 'location': '广州市'}]}</t>
         </is>
       </c>
       <c r="I12" s="3" t="n">
-        <v>0.06737899999999999</v>
+        <v>0.079373</v>
       </c>
       <c r="J12" s="3" t="n">
         <v>200</v>
@@ -1219,11 +1219,11 @@
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I13" s="3" t="n">
-        <v>0.010599</v>
+        <v>0.012208</v>
       </c>
       <c r="J13" s="3" t="n">
         <v>200</v>
@@ -1282,11 +1282,11 @@
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-29 04:49:41', 'ftime': '2019-09-29 04:49:41', 'context': '[南昌市]离开【南昌中心】,下一站【重庆中心】（经转）', 'location': ''}, {'time': '2019-09-28 03:39:48', 'ftime': '2019-09-28 03:39:48', 'context': '[南昌市]到达【南昌中心】（经转）', 'location': ''}, {'time': '2019-09-27 21:05:33', 'ftime': '2019-09-27 21:05:33', 'context': '离开【邮政景德镇市邮件】,下一站【南昌中心】', 'location': ''}, {'time': '2019-09-27 19:46:37', 'ftime': '2019-09-27 19:46:37', 'context': '到达【邮政景德镇市邮件】', 'location': ''}, {'time': '2019-09-27 17:49:39', 'ftime': '2019-09-27 17:49:39', 'context': '离开【景德镇市城中揽投部】,下一站【景德中心】', 'location': ''}, {'time': '2019-09-27 15:19:28', 'ftime': '2019-09-27 15:19:28', 'context': '【景德镇市城中揽投部】已收件,揽投员:郑茂林,电话:18879838722', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-13 15:19:23', 'ftime': '2019-08-13 15:19:23', 'context': '[南京市]邮件投递到：蓝光时代自提点,投递员:刘义彬,电话:13851794114', 'location': None}, {'time': '2019-08-13 14:35:05', 'ftime': '2019-08-13 14:35:05', 'context': '[南京市]【挹江门投递部】安排投递,投递员:刘义彬,电话:13851794114', 'location': None}, {'time': '2019-08-13 13:38:39', 'ftime': '2019-08-13 13:38:39', 'context': '[南京市]到达【挹江门投递部】', 'location': None}, {'time': '2019-08-13 13:07:06', 'ftime': '2019-08-13 13:07:06', 'context': '[南京市]离开【南京枢纽】,下一站【挹江门投递部】（经转）', 'location': None}, {'time': '2019-08-13 09:11:51', 'ftime': '2019-08-13 09:11:51', 'context': '[南京市]到达【南京枢纽】（经转）', 'location': None}, {'time': '2019-08-13 03:55:47', 'ftime': '2019-08-13 03:55:47', 'context': '[上海市]离开【上海中心局邮件处理中心】,下一站【南京枢纽】（经转）', 'location': None}, {'time': '2019-08-12 19:19:23', 'ftime': '2019-08-12 19:19:23', 'context': '[上海市]到达【上海中心局邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-12 18:13:32', 'ftime': '2019-08-12 18:13:32', 'context': '[上海市]离开【大宗宝山邮政】,下一站【上海王港】', 'location': None}, {'time': '2019-08-12 16:59:50', 'ftime': '2019-08-12 16:59:50', 'context': '[上海市]【大宗宝山邮政】已收件,揽投员:钱萍,电话:13611732837', 'location': None}]}</t>
         </is>
       </c>
       <c r="I14" s="3" t="n">
-        <v>0.073842</v>
+        <v>0.072293</v>
       </c>
       <c r="J14" s="3" t="n">
         <v>200</v>
@@ -1334,11 +1334,11 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I15" s="3" t="n">
-        <v>0.010719</v>
+        <v>0.009211</v>
       </c>
       <c r="J15" s="3" t="n">
         <v>200</v>
@@ -1388,11 +1388,11 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-09-28 19:42:03', 'ftime': '2019-09-28 19:42:03', 'context': '货物已完成分拣，离开【西安外单分拣中心】', 'location': ''}, {'time': '2019-09-27 19:57:17', 'ftime': '2019-09-27 19:57:17', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-27 19:57:17', 'ftime': '2019-09-27 19:57:17', 'context': '配送员张进县已经揽收完成', 'location': ''}, {'time': '2019-09-26 16:23:14', 'ftime': '2019-09-26 16:23:14', 'context': '揽收任务已分配给王彦彦,配送员电话13919514655', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 16:49:09', 'ftime': '2019-07-30 16:49:09', 'context': '[淮安市]邮件投递到：书香名苑东门好视力眼镜自提点,投递员:颜勇,电话:18915111098', 'location': None}, {'time': '2019-07-30 15:09:29', 'ftime': '2019-07-30 15:09:29', 'context': '[淮安市]【淮安市淮阴区寄递事业部城区营业部】安排投递,投递员:颜勇,电话:18915111098', 'location': None}, {'time': '2019-07-30 14:58:34', 'ftime': '2019-07-30 14:58:34', 'context': '[淮安市]到达【淮安市淮阴区寄递事业部城区营业部】', 'location': None}, {'time': '2019-07-30 14:57:45', 'ftime': '2019-07-30 14:57:45', 'context': '[淮安市]离开【邮政淮安市淮阴区邮件班】,下一站【淮安市淮阴区寄递事业部城区营业部】（经转）', 'location': None}, {'time': '2019-07-30 05:06:18', 'ftime': '2019-07-30 05:06:18', 'context': '[淮安市]到达【淮安市邮区中心局邮件】（经转）', 'location': None}, {'time': '2019-07-30 00:46:01', 'ftime': '2019-07-30 00:46:01', 'context': '[无锡市]离开【无锡集散】,下一站【淮安市邮区中心局邮件】（经转）', 'location': None}, {'time': '2019-07-29 22:06:43', 'ftime': '2019-07-29 22:06:43', 'context': '[无锡市]到达【无锡集散】（经转）', 'location': None}, {'time': '2019-07-29 14:26:04', 'ftime': '2019-07-29 14:26:04', 'context': '[温州市]离开【邮政温州市邮件处理中心】,下一站【无锡集散】（经转）', 'location': None}, {'time': '2019-07-29 13:24:00', 'ftime': '2019-07-29 13:24:00', 'context': '[温州市]到达【邮政温州市邮件处理中心】（经转）', 'location': None}, {'time': '2019-07-29 12:17:07', 'ftime': '2019-07-29 12:17:07', 'context': '[温州市]离开【苍南县灵溪代收货款邮件处理中心】,下一站【温州中心】', 'location': None}, {'time': '2019-07-29 12:10:53', 'ftime': '2019-07-29 12:10:53', 'context': '[温州市]【苍南县灵溪代收货款邮件处理中心】已收件,揽投员:黄仲雷,电话:13185897010', 'location': None}]}</t>
         </is>
       </c>
       <c r="I16" s="3" t="n">
-        <v>0.069268</v>
+        <v>0.07084500000000001</v>
       </c>
       <c r="J16" s="3" t="n">
         <v>200</v>
@@ -1440,11 +1440,11 @@
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I17" s="3" t="n">
-        <v>0.00933</v>
+        <v>0.009949</v>
       </c>
       <c r="J17" s="3" t="n">
         <v>200</v>
@@ -1503,11 +1503,11 @@
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-27 20:25:44', 'ftime': '2019-09-27 20:25:44', 'context': '订单已再投，再投原因：【客户更改配送时间】，下一次预计派送时间 2019-09-28 21:00:00', 'location': ''}, {'time': '2019-09-27 07:58:32', 'ftime': '2019-09-27 07:58:32', 'context': '配送员开始配送，请您准备收货，配送员，王卫国，手机号，15769219193', 'location': ''}, {'time': '2019-09-27 07:54:24', 'ftime': '2019-09-27 07:54:24', 'context': '配送员开始配送，请您准备收货，配送员，王卫国，手机号，15769219193', 'location': ''}, {'time': '2019-09-27 06:46:50', 'ftime': '2019-09-27 06:46:50', 'context': '货物已分配，等待配送', 'location': ''}, {'time': '2019-09-27 06:46:49', 'ftime': '2019-09-27 06:46:49', 'context': '货物已到达【宝鸡钛城营业部】', 'location': ''}, {'time': '2019-09-27 04:33:54', 'ftime': '2019-09-27 04:33:54', 'context': '货物已完成分拣，离开【宝鸡中转场】', 'location': ''}, {'time': '2019-09-26 23:24:22', 'ftime': '2019-09-26 23:24:22', 'context': '货物已完成分拣，离开【西安亚一分拣中心】', 'location': ''}, {'time': '2019-09-26 23:12:31', 'ftime': '2019-09-26 23:12:31', 'context': '货物已到达【西安亚一分拣中心】', 'location': ''}, {'time': '2019-09-26 19:16:52', 'ftime': '2019-09-26 19:16:52', 'context': '货物已交付京东物流', 'location': ''}, {'time': '2019-09-26 19:16:52', 'ftime': '2019-09-26 19:16:52', 'context': '配送员郭华已经揽收完成', 'location': ''}, {'time': '2019-09-26 19:01:09', 'ftime': '2019-09-26 19:01:09', 'context': '配送员郭华操作再取，再取原因为：客户更改揽收时间,下次预计揽收时间为09月26日20:00-21:00', 'location': ''}, {'time': '2019-09-26 17:20:14', 'ftime': '2019-09-26 17:20:14', 'context': '揽收任务已分配给郭华,配送员电话16670451128或63017506', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 13:04:01', 'ftime': '2019-09-29 13:04:01', 'context': '[贵州遵义公司珠海路分部]快件已被 世纪铭都云柜 代签收如有问题请联系胡杰【18166902314】。', 'location': '贵州遵义公司珠海路分部'}, {'time': '2019-09-29 11:21:54', 'ftime': '2019-09-29 11:21:54', 'context': '[贵州遵义公司珠海路分部]进行派件扫描；派送业务员：胡杰；联系电话：18166902314', 'location': '贵州遵义公司珠海路分部'}, {'time': '2019-09-29 04:29:42', 'ftime': '2019-09-29 04:29:42', 'context': '[贵州遵义公司]进行快件扫描，发往：贵州遵义公司珠海路分部', 'location': '贵州遵义公司'}, {'time': '2019-09-29 04:29:39', 'ftime': '2019-09-29 04:29:39', 'context': '[贵州遵义公司]进行快件扫描，发往：贵州遵义公司珠海路分部', 'location': '贵州遵义公司'}, {'time': '2019-09-29 03:35:27', 'ftime': '2019-09-29 03:35:27', 'context': '[贵州遵义公司]到达目的地网点，快件很快进行派送', 'location': '贵州遵义公司'}, {'time': '2019-09-28 21:07:30', 'ftime': '2019-09-28 21:07:30', 'context': '[贵州贵阳分拨中心]从站点发出，本次转运目的地：贵州遵义公司', 'location': '贵州贵阳分拨中心'}, {'time': '2019-09-28 20:17:56', 'ftime': '2019-09-28 20:17:56', 'context': '[贵州贵阳分拨中心]在分拨中心进行卸车扫描', 'location': '贵州贵阳分拨中心'}, {'time': '2019-09-27 20:12:51', 'ftime': '2019-09-27 20:12:51', 'context': '[湖南长沙分拨中心]进行装车扫描，发往：贵州贵阳分拨中心', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-27 19:02:36', 'ftime': '2019-09-27 19:02:36', 'context': '[湖南长沙分拨中心]进行中转集包扫描，发往：贵州贵阳分拨中心', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-27 18:58:04', 'ftime': '2019-09-27 18:58:04', 'context': '[湖南长沙分拨中心]在分拨中心进行称重扫描', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-27 13:37:44', 'ftime': '2019-09-27 13:37:44', 'context': '[湖南长沙开福区中山路公司]进行揽件扫描', 'location': '湖南长沙开福区中山路公司'}]}</t>
         </is>
       </c>
       <c r="I18" s="3" t="n">
-        <v>0.06610000000000001</v>
+        <v>0.074851</v>
       </c>
       <c r="J18" s="3" t="n">
         <v>200</v>
@@ -1564,11 +1564,11 @@
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '北风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，发生感冒机率较低。但请避免长期处于空调房间中，以防感冒。', 'wendu': '22'}, 'status': 1000, 'desc': 'OK'}</t>
+          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
         </is>
       </c>
       <c r="I19" s="3" t="n">
-        <v>0.010441</v>
+        <v>0.009567000000000001</v>
       </c>
       <c r="J19" s="3" t="n">
         <v>200</v>

--- a/data_excel/接口测试用例_ (2).xlsx
+++ b/data_excel/接口测试用例_ (2).xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -40,34 +40,6 @@
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <color indexed="81"/>
-      <sz val="9"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="81"/>
-      <sz val="9"/>
     </font>
     <font>
       <name val="宋体"/>
@@ -127,10 +99,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -138,6 +110,20 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="1"/>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -486,10 +472,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -501,8 +487,9 @@
     <col width="22.5" customWidth="1" style="2" min="5" max="5"/>
     <col width="32.25" customWidth="1" style="2" min="6" max="6"/>
     <col width="19.75" customWidth="1" style="2" min="7" max="7"/>
-    <col width="28.75" customWidth="1" style="2" min="8" max="8"/>
-    <col width="14.375" customWidth="1" style="4" min="9" max="11"/>
+    <col width="11.5" customWidth="1" style="2" min="8" max="8"/>
+    <col width="28.75" customWidth="1" style="2" min="9" max="9"/>
+    <col width="14.375" customWidth="1" style="4" min="10" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="29.25" customHeight="1" s="2">
@@ -543,20 +530,25 @@
       </c>
       <c r="H1" s="8" t="inlineStr">
         <is>
+          <t>用例级别</t>
+        </is>
+      </c>
+      <c r="I1" s="8" t="inlineStr">
+        <is>
           <t>响应报文</t>
         </is>
       </c>
-      <c r="I1" s="9" t="inlineStr">
+      <c r="J1" s="9" t="inlineStr">
         <is>
           <t>响应时间</t>
         </is>
       </c>
-      <c r="J1" s="9" t="inlineStr">
+      <c r="K1" s="9" t="inlineStr">
         <is>
           <t>状态码</t>
         </is>
       </c>
-      <c r="K1" s="9" t="inlineStr">
+      <c r="L1" s="9" t="inlineStr">
         <is>
           <t>测试结果</t>
         </is>
@@ -608,18 +600,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2018-09-15 11:08:22', 'ftime': '2018-09-15 11:08:22', 'context': '[佛山市]佛山市【佛山南海区七部】，恒大御景湾大门内3号丰巢柜 已签收', 'location': None}, {'time': '2018-09-15 11:07:06', 'ftime': '2018-09-15 11:07:06', 'context': '[佛山市]佛山市【佛山南海区七部】，【赵宣波/15989975814】正在派件', 'location': None}, {'time': '2018-09-15 08:18:25', 'ftime': '2018-09-15 08:18:25', 'context': '[佛山市]到佛山市【佛山南海区七部】', 'location': None}, {'time': '2018-09-15 03:55:45', 'ftime': '2018-09-15 03:55:45', 'context': '[佛山市]佛山市【佛山转运中心】，正发往【佛山南海区七部】', 'location': None}, {'time': '2018-09-15 01:45:46', 'ftime': '2018-09-15 01:45:46', 'context': '[佛山市]到佛山市【佛山转运中心】', 'location': None}, {'time': '2018-09-15 01:39:11', 'ftime': '2018-09-15 01:39:11', 'context': '[广州市]广州市【广州转运中心】，正发往【佛山转运中心】', 'location': None}, {'time': '2018-09-15 00:40:17', 'ftime': '2018-09-15 00:40:17', 'context': '[广州市]到广州市【广州转运中心】', 'location': None}, {'time': '2018-09-14 02:12:41', 'ftime': '2018-09-14 02:12:41', 'context': '[上海市]上海市【上海转运中心】，正发往【广州转运中心】', 'location': None}, {'time': '2018-09-14 00:13:08', 'ftime': '2018-09-14 00:13:08', 'context': '[上海市]到上海市【上海转运中心】', 'location': None}, {'time': '2018-09-13 16:23:36', 'ftime': '2018-09-13 16:23:36', 'context': '[上海市]上海市【松江】，【九亭公司/021-33522583】已揽收', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>0.069656</v>
+      <c r="H2" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-30 16:34:44', 'context': '查无结果', 'ftime': '2019-09-30 16:34:44'}]}</t>
+        </is>
       </c>
       <c r="J2" s="3" t="n">
+        <v>0.06644899999999999</v>
+      </c>
+      <c r="K2" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -669,22 +666,15 @@
       <c r="G3" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H3" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>0.009259999999999999</v>
-      </c>
-      <c r="J3" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="n"/>
+      <c r="J3" s="3" t="n"/>
+      <c r="K3" s="3" t="n"/>
+      <c r="L3" s="3" t="n"/>
     </row>
     <row r="4" ht="39.95" customHeight="1" s="2">
       <c r="A4" s="3" t="n">
@@ -723,18 +713,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-09-29 15:06:34', 'ftime': '2019-09-29 15:06:34', 'context': '山东济南历城五部公司-鲍山花园北区17号楼(13573772848)-派件中', 'location': ''}, {'time': '2019-09-29 14:21:34', 'ftime': '2019-09-29 14:21:34', 'context': '已到达-山东济南历城五部公司', 'location': ''}, {'time': '2019-09-29 09:37:24', 'ftime': '2019-09-29 09:37:24', 'context': '山东济南转运中心-已发往-山东济南历城五部公司', 'location': ''}, {'time': '2019-09-29 09:22:43', 'ftime': '2019-09-29 09:22:43', 'context': '已到达-山东济南转运中心', 'location': ''}, {'time': '2019-09-28 04:18:12', 'ftime': '2019-09-28 04:18:12', 'context': '广东广州转运中心-已装袋发往-山东济南转运中心', 'location': ''}, {'time': '2019-09-28 04:18:12', 'ftime': '2019-09-28 04:18:12', 'context': '广东广州转运中心-已进行装车扫描', 'location': ''}, {'time': '2019-09-28 04:02:17', 'ftime': '2019-09-28 04:02:17', 'context': '已到达-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 01:52:41', 'ftime': '2019-09-28 01:52:41', 'context': '广东广州大源集散中心-已发往-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 01:52:41', 'ftime': '2019-09-28 01:52:41', 'context': '广东广州大源集散中心-已进行装袋扫描', 'location': ''}, {'time': '2019-09-28 01:52:37', 'ftime': '2019-09-28 01:52:37', 'context': '广东广州大源集散中心-已发往-广东广州转运中心', 'location': ''}, {'time': '2019-09-28 01:45:13', 'ftime': '2019-09-28 01:45:13', 'context': '已到达-广东广州大源集散中心', 'location': ''}, {'time': '2019-09-28 00:08:05', 'ftime': '2019-09-28 00:08:05', 'context': '广东广州永泰公司-广州包打包云仓(17520698680)-已收件', 'location': ''}, {'time': '2019-09-27 20:40:35', 'ftime': '2019-09-27 20:40:35', 'context': '广东广州永泰公司-广州包打包云仓(17520698680)-已收件', 'location': ''}]}</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>0.069179</v>
+      <c r="H4" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I4" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-14 16:34:44', 'context': '查无结果', 'ftime': '2019-09-14 16:34:44'}]}</t>
+        </is>
       </c>
       <c r="J4" s="3" t="n">
+        <v>0.068079</v>
+      </c>
+      <c r="K4" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K4" s="3" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -775,22 +770,15 @@
       <c r="G5" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H5" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>0.011196</v>
-      </c>
-      <c r="J5" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I5" s="0" t="n"/>
+      <c r="J5" s="3" t="n"/>
+      <c r="K5" s="3" t="n"/>
+      <c r="L5" s="3" t="n"/>
     </row>
     <row r="6" ht="39.95" customHeight="1" s="2">
       <c r="A6" s="3" t="n">
@@ -829,18 +817,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-23 16:10:51', 'context': '查无结果', 'ftime': '2019-09-23 16:10:51'}]}</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>0.067981</v>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 11:33:51', 'ftime': '2019-10-08 11:33:51', 'context': '离开【云南省鲁甸县投递营业部】,下一站【邮政昭通市昭通市邮件】 昭通市', 'location': ''}, {'time': '2019-10-08 08:00:06', 'ftime': '2019-10-08 08:00:06', 'context': '【云南省鲁甸县投递营业部】投递结果反馈-未妥投,备注(拒收 ),投递员:陈师查询15687002947联系，谢谢,电话:15687002947', 'location': ''}, {'time': '2019-10-04 20:48:17', 'ftime': '2019-10-04 20:48:17', 'context': '【云南省鲁甸县投递营业部】投递结果反馈-未妥投,备注(待收费后投递),投递员:陈师查询15687002947联系，谢谢,电话:15687002947', 'location': ''}, {'time': '2019-10-04 11:08:27', 'ftime': '2019-10-04 11:08:27', 'context': '【云南省鲁甸县投递营业部】安排投递,投递员:陈师查询15687002947联系，谢谢,电话:15687002947', 'location': ''}, {'time': '2019-10-03 19:25:55', 'ftime': '2019-10-03 19:25:55', 'context': '到达【邮政昭通市昭通市邮件】 昭通市', 'location': ''}, {'time': '2019-10-03 11:47:55', 'ftime': '2019-10-03 11:47:55', 'context': '离开【昆明中心局邮处】,下一站【邮政昭通市昭通市邮件】（经转） 昆明市', 'location': ''}, {'time': '2019-10-03 05:29:20', 'ftime': '2019-10-03 05:29:20', 'context': '到达【昆明站】（经转） 昆明市', 'location': ''}, {'time': '2019-10-01 08:44:19', 'ftime': '2019-10-01 08:44:19', 'context': '离开【北京西站】,下一站【昆明站】 北京市', 'location': ''}, {'time': '2019-09-29 05:38:49', 'ftime': '2019-09-29 05:38:49', 'context': '到达【北京综合邮件处理中心】 北京市', 'location': ''}, {'time': '2019-09-28 18:42:37', 'ftime': '2019-09-28 18:42:37', 'context': '离开【电子商务综合项目组】,下一站【北京中心】 北京市', 'location': ''}, {'time': '2019-09-28 18:27:14', 'ftime': '2019-09-28 18:27:14', 'context': '北京市 【电子商务综合项目组】已收件,揽投员:徐丽,电话:12345678901', 'location': ''}]}</t>
+        </is>
       </c>
       <c r="J6" s="3" t="n">
+        <v>0.071285</v>
+      </c>
+      <c r="K6" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K6" s="3" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -881,22 +874,15 @@
       <c r="G7" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>0.011867</v>
-      </c>
-      <c r="J7" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="n"/>
+      <c r="J7" s="3" t="n"/>
+      <c r="K7" s="3" t="n"/>
+      <c r="L7" s="3" t="n"/>
     </row>
     <row r="8" ht="39.95" customHeight="1" s="2">
       <c r="A8" s="3" t="n">
@@ -935,18 +921,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-09 16:10:51', 'context': '查无结果', 'ftime': '2019-09-09 16:10:51'}]}</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>0.063759</v>
+      <c r="H8" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:15:13', 'ftime': '2019-10-08 06:15:13', 'context': '[合肥市]离开【合肥中心】,下一站【安徽省定远县报刊投递班】（经转）', 'location': None}, {'time': '2019-10-08 02:46:21', 'ftime': '2019-10-08 02:46:21', 'context': '[合肥市]到达【合肥中心】（经转）', 'location': None}, {'time': '2019-10-07 04:45:48', 'ftime': '2019-10-07 04:45:48', 'context': '[广州市]离开【江高中心】,下一站【合肥中心】（经转）', 'location': None}, {'time': '2019-10-06 08:17:39', 'ftime': '2019-10-06 08:17:39', 'context': '[广州市]到达【江高中心】（经转）', 'location': None}, {'time': '2019-10-05 22:05:08', 'ftime': '2019-10-05 22:05:08', 'context': '[深圳市]离开【邮政深圳市处理中心】,下一站【邮政深圳市处理中心】', 'location': None}, {'time': '2019-10-05 14:16:14', 'ftime': '2019-10-05 14:16:14', 'context': '[深圳市]到达【邮政深圳市处理中心】', 'location': None}, {'time': '2019-10-05 13:33:36', 'ftime': '2019-10-05 13:33:36', 'context': '[深圳市]离开【邮政深圳市蛇口支局】,下一站【深圳】', 'location': None}, {'time': '2019-10-05 09:43:10', 'ftime': '2019-10-05 09:43:10', 'context': '[深圳市]【深圳市蛇口邮政支局】已收件', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J8" s="3" t="n">
+        <v>0.075573</v>
+      </c>
+      <c r="K8" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="L8" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -987,22 +978,15 @@
       <c r="G9" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H9" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I9" s="3" t="n">
-        <v>0.009637</v>
-      </c>
-      <c r="J9" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H9" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
     </row>
     <row r="10" ht="39.95" customHeight="1" s="2">
       <c r="A10" s="3" t="n">
@@ -1041,18 +1025,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-15 16:10:51', 'context': '查无结果', 'ftime': '2019-09-15 16:10:51'}]}</t>
-        </is>
-      </c>
-      <c r="I10" s="3" t="n">
-        <v>0.076103</v>
+      <c r="H10" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-30 18:44:20', 'ftime': '2019-09-30 18:44:20', 'context': '【赣州市】 快件已在 【南康潭口镇】 签收, 签收人: 其它, 如有疑问请电联:18146673602 / 15579731668, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-09-30 12:29:49', 'ftime': '2019-09-30 12:29:49', 'context': '【赣州市】 【南康潭口镇】 的小曾（18146673602） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-09-30 00:00:33', 'ftime': '2019-09-30 00:00:33', 'context': '【赣州市】 快件已经到达 【南康潭口镇】', 'location': None}, {'time': '2019-09-29 15:37:53', 'ftime': '2019-09-29 15:37:53', 'context': '【赣州市】 快件离开 【赣州中转部】 已发往 【南康潭口镇】', 'location': None}, {'time': '2019-09-29 14:52:39', 'ftime': '2019-09-29 14:52:39', 'context': '【赣州市】 快件已经到达 【赣州中转部】', 'location': None}, {'time': '2019-09-29 07:08:11', 'ftime': '2019-09-29 07:08:11', 'context': '【广州市】 快件离开 【广州中心】 已发往 【赣州中转部】', 'location': None}, {'time': '2019-09-29 05:08:30', 'ftime': '2019-09-29 05:08:30', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': None}, {'time': '2019-09-29 02:41:32', 'ftime': '2019-09-29 02:41:32', 'context': '【广州市】 快件离开 【广州广园】 已发往 【赣州中转部】', 'location': None}, {'time': '2019-09-28 22:39:25', 'ftime': '2019-09-28 22:39:25', 'context': '【广州市】 【广州广园】（020-37414075、020-37414074、020-37414073） 的 V郑勇华（13000000000） 已揽收', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J10" s="3" t="n">
+        <v>0.07199899999999999</v>
+      </c>
+      <c r="K10" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K10" s="3" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1093,22 +1082,15 @@
       <c r="G11" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>0.010426</v>
-      </c>
-      <c r="J11" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H11" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="n"/>
+      <c r="J11" s="3" t="n"/>
+      <c r="K11" s="3" t="n"/>
+      <c r="L11" s="3" t="n"/>
     </row>
     <row r="12" ht="39.95" customHeight="1" s="2">
       <c r="A12" s="3" t="n">
@@ -1156,18 +1138,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-22 18:54:08', 'ftime': '2019-09-22 18:54:08', 'context': '【2019-09-22 18:54:08】快件已被客户【廖签收,签收网点【湖南零陵】', 'location': '永州市'}, {'time': '2019-09-22 09:03:20', 'ftime': '2019-09-22 09:03:20', 'context': '【2019-09-22 09:03:20】快件已到达【湖南零陵】', 'location': '永州市'}, {'time': '2019-09-21 20:33:22', 'ftime': '2019-09-21 20:33:22', 'context': '【2019-09-21 20:33:22】快件在【永州中心】正发往【湖南零陵】', 'location': '永州市'}, {'time': '2019-09-21 16:42:43', 'ftime': '2019-09-21 16:42:43', 'context': '【2019-09-21 16:42:43】快件已到达【永州中心】', 'location': '永州市'}, {'time': '2019-09-20 21:25:32', 'ftime': '2019-09-20 21:25:32', 'context': '【2019-09-20 21:25:32】快件在【长沙分拨中心】正发往【永州中心】', 'location': '长沙市'}, {'time': '2019-09-20 00:16:51', 'ftime': '2019-09-20 00:16:51', 'context': '【2019-09-20 00:16:51】快件已到达【长沙分拨中心】', 'location': '长沙市'}, {'time': '2019-09-19 08:11:19', 'ftime': '2019-09-19 08:11:19', 'context': '【2019-09-19 08:11:19】快件在【广州分拨中心】正发往【长沙分拨中心】', 'location': '广州市'}, {'time': '2019-09-19 07:48:10', 'ftime': '2019-09-19 07:48:10', 'context': '【2019-09-19 07:48:10】快件已到达【广州分拨中心】', 'location': '广州市'}, {'time': '2019-09-19 02:20:45', 'ftime': '2019-09-19 02:20:45', 'context': '【2019-09-19 02:20:45】快件在【广州黄埔分拨中心】正发往【广州分拨中心】', 'location': '广州市'}, {'time': '2019-09-19 00:25:00', 'ftime': '2019-09-19 00:25:00', 'context': '【2019-09-19 00:25:00】快件已到达【广州黄埔分拨中心】', 'location': '广州市'}, {'time': '2019-09-18 21:41:38', 'ftime': '2019-09-18 21:41:38', 'context': '【2019-09-18 21:41:38】快件在【广州新塘凤凰城】正发往【广州黄埔分拨中心】', 'location': '广州市'}]}</t>
-        </is>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>0.079373</v>
+      <c r="H12" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-22 16:34:45', 'context': '查无结果', 'ftime': '2019-09-22 16:34:45'}]}</t>
+        </is>
       </c>
       <c r="J12" s="3" t="n">
+        <v>0.06300799999999999</v>
+      </c>
+      <c r="K12" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K12" s="3" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1217,22 +1204,15 @@
       <c r="G13" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>0.012208</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H13" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="n"/>
+      <c r="J13" s="3" t="n"/>
+      <c r="K13" s="3" t="n"/>
+      <c r="L13" s="3" t="n"/>
     </row>
     <row r="14" ht="39.95" customHeight="1" s="2">
       <c r="A14" s="3" t="n">
@@ -1280,18 +1260,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-08-13 15:19:23', 'ftime': '2019-08-13 15:19:23', 'context': '[南京市]邮件投递到：蓝光时代自提点,投递员:刘义彬,电话:13851794114', 'location': None}, {'time': '2019-08-13 14:35:05', 'ftime': '2019-08-13 14:35:05', 'context': '[南京市]【挹江门投递部】安排投递,投递员:刘义彬,电话:13851794114', 'location': None}, {'time': '2019-08-13 13:38:39', 'ftime': '2019-08-13 13:38:39', 'context': '[南京市]到达【挹江门投递部】', 'location': None}, {'time': '2019-08-13 13:07:06', 'ftime': '2019-08-13 13:07:06', 'context': '[南京市]离开【南京枢纽】,下一站【挹江门投递部】（经转）', 'location': None}, {'time': '2019-08-13 09:11:51', 'ftime': '2019-08-13 09:11:51', 'context': '[南京市]到达【南京枢纽】（经转）', 'location': None}, {'time': '2019-08-13 03:55:47', 'ftime': '2019-08-13 03:55:47', 'context': '[上海市]离开【上海中心局邮件处理中心】,下一站【南京枢纽】（经转）', 'location': None}, {'time': '2019-08-12 19:19:23', 'ftime': '2019-08-12 19:19:23', 'context': '[上海市]到达【上海中心局邮件处理中心】（经转）', 'location': None}, {'time': '2019-08-12 18:13:32', 'ftime': '2019-08-12 18:13:32', 'context': '[上海市]离开【大宗宝山邮政】,下一站【上海王港】', 'location': None}, {'time': '2019-08-12 16:59:50', 'ftime': '2019-08-12 16:59:50', 'context': '[上海市]【大宗宝山邮政】已收件,揽投员:钱萍,电话:13611732837', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>0.072293</v>
+      <c r="H14" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-02 16:34:45', 'context': '查无结果', 'ftime': '2019-10-02 16:34:45'}]}</t>
+        </is>
       </c>
       <c r="J14" s="3" t="n">
+        <v>0.064373</v>
+      </c>
+      <c r="K14" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="L14" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1332,22 +1317,15 @@
       <c r="G15" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>0.009211</v>
-      </c>
-      <c r="J15" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="n"/>
+      <c r="J15" s="3" t="n"/>
+      <c r="K15" s="3" t="n"/>
+      <c r="L15" s="3" t="n"/>
     </row>
     <row r="16" ht="39.95" customHeight="1" s="2">
       <c r="A16" s="3" t="n">
@@ -1386,18 +1364,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H16" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-30 16:49:09', 'ftime': '2019-07-30 16:49:09', 'context': '[淮安市]邮件投递到：书香名苑东门好视力眼镜自提点,投递员:颜勇,电话:18915111098', 'location': None}, {'time': '2019-07-30 15:09:29', 'ftime': '2019-07-30 15:09:29', 'context': '[淮安市]【淮安市淮阴区寄递事业部城区营业部】安排投递,投递员:颜勇,电话:18915111098', 'location': None}, {'time': '2019-07-30 14:58:34', 'ftime': '2019-07-30 14:58:34', 'context': '[淮安市]到达【淮安市淮阴区寄递事业部城区营业部】', 'location': None}, {'time': '2019-07-30 14:57:45', 'ftime': '2019-07-30 14:57:45', 'context': '[淮安市]离开【邮政淮安市淮阴区邮件班】,下一站【淮安市淮阴区寄递事业部城区营业部】（经转）', 'location': None}, {'time': '2019-07-30 05:06:18', 'ftime': '2019-07-30 05:06:18', 'context': '[淮安市]到达【淮安市邮区中心局邮件】（经转）', 'location': None}, {'time': '2019-07-30 00:46:01', 'ftime': '2019-07-30 00:46:01', 'context': '[无锡市]离开【无锡集散】,下一站【淮安市邮区中心局邮件】（经转）', 'location': None}, {'time': '2019-07-29 22:06:43', 'ftime': '2019-07-29 22:06:43', 'context': '[无锡市]到达【无锡集散】（经转）', 'location': None}, {'time': '2019-07-29 14:26:04', 'ftime': '2019-07-29 14:26:04', 'context': '[温州市]离开【邮政温州市邮件处理中心】,下一站【无锡集散】（经转）', 'location': None}, {'time': '2019-07-29 13:24:00', 'ftime': '2019-07-29 13:24:00', 'context': '[温州市]到达【邮政温州市邮件处理中心】（经转）', 'location': None}, {'time': '2019-07-29 12:17:07', 'ftime': '2019-07-29 12:17:07', 'context': '[温州市]离开【苍南县灵溪代收货款邮件处理中心】,下一站【温州中心】', 'location': None}, {'time': '2019-07-29 12:10:53', 'ftime': '2019-07-29 12:10:53', 'context': '[温州市]【苍南县灵溪代收货款邮件处理中心】已收件,揽投员:黄仲雷,电话:13185897010', 'location': None}]}</t>
-        </is>
-      </c>
-      <c r="I16" s="3" t="n">
-        <v>0.07084500000000001</v>
+      <c r="H16" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I16" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 14:24:09', 'ftime': '2019-10-08 14:24:09', 'context': '[浙江慈溪管理公司大发路分部]进行派件扫描；派送业务员：杨光辉；联系电话：18957414235', 'location': '浙江慈溪管理公司大发路分部'}, {'time': '2019-10-08 07:56:32', 'ftime': '2019-10-08 07:56:32', 'context': '[浙江慈溪管理公司]进行快件扫描，发往：浙江慈溪管理公司大发路分部', 'location': '浙江慈溪管理公司'}, {'time': '2019-10-08 07:55:28', 'ftime': '2019-10-08 07:55:28', 'context': '[浙江慈溪管理公司]到达目的地网点，快件很快进行派送', 'location': '浙江慈溪管理公司'}, {'time': '2019-10-08 04:53:02', 'ftime': '2019-10-08 04:53:02', 'context': '[浙江宁波分拨中心]从站点发出，本次转运目的地：浙江慈溪管理公司', 'location': '浙江宁波分拨中心'}, {'time': '2019-10-08 04:41:27', 'ftime': '2019-10-08 04:41:27', 'context': '[浙江宁波分拨中心]在分拨中心进行卸车扫描', 'location': '浙江宁波分拨中心'}, {'time': '2019-10-07 21:43:06', 'ftime': '2019-10-07 21:43:06', 'context': '[浙江温州分拨中心]进行装车扫描，发往：浙江宁波分拨中心', 'location': '浙江温州分拨中心'}, {'time': '2019-10-07 21:41:04', 'ftime': '2019-10-07 21:41:04', 'context': '[浙江温州分拨中心]在分拨中心进行称重扫描', 'location': '浙江温州分拨中心'}, {'time': '2019-10-07 15:20:02', 'ftime': '2019-10-07 15:20:02', 'context': '[福建福安市公司]进行发出扫描，发往：浙江温州分拨中心', 'location': '福建福安市公司'}, {'time': '2019-10-07 15:19:56', 'ftime': '2019-10-07 15:19:56', 'context': '[福建福安市公司]进行装车扫描，发往：浙江温州分拨中心', 'location': '福建福安市公司'}, {'time': '2019-10-07 15:14:56', 'ftime': '2019-10-07 15:14:56', 'context': '[福建福安市公司]在分拨中心进行称重扫描', 'location': '福建福安市公司'}, {'time': '2019-10-07 10:14:06', 'ftime': '2019-10-07 10:14:06', 'context': '[福建福安市公司]进行下级地点扫描，发往：浙江宁波分拨中心', 'location': '福建福安市公司'}, {'time': '2019-10-06 17:09:50', 'ftime': '2019-10-06 17:09:50', 'context': '[福建福安市公司]进行揽件扫描', 'location': '福建福安市公司'}]}</t>
+        </is>
       </c>
       <c r="J16" s="3" t="n">
+        <v>0.087408</v>
+      </c>
+      <c r="K16" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="L16" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1438,22 +1421,15 @@
       <c r="G17" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I17" s="3" t="n">
-        <v>0.009949</v>
-      </c>
-      <c r="J17" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="n"/>
+      <c r="J17" s="3" t="n"/>
+      <c r="K17" s="3" t="n"/>
+      <c r="L17" s="3" t="n"/>
     </row>
     <row r="18" ht="39.95" customHeight="1" s="2">
       <c r="A18" s="3" t="n">
@@ -1501,18 +1477,23 @@
           <t>ok</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-29 13:04:01', 'ftime': '2019-09-29 13:04:01', 'context': '[贵州遵义公司珠海路分部]快件已被 世纪铭都云柜 代签收如有问题请联系胡杰【18166902314】。', 'location': '贵州遵义公司珠海路分部'}, {'time': '2019-09-29 11:21:54', 'ftime': '2019-09-29 11:21:54', 'context': '[贵州遵义公司珠海路分部]进行派件扫描；派送业务员：胡杰；联系电话：18166902314', 'location': '贵州遵义公司珠海路分部'}, {'time': '2019-09-29 04:29:42', 'ftime': '2019-09-29 04:29:42', 'context': '[贵州遵义公司]进行快件扫描，发往：贵州遵义公司珠海路分部', 'location': '贵州遵义公司'}, {'time': '2019-09-29 04:29:39', 'ftime': '2019-09-29 04:29:39', 'context': '[贵州遵义公司]进行快件扫描，发往：贵州遵义公司珠海路分部', 'location': '贵州遵义公司'}, {'time': '2019-09-29 03:35:27', 'ftime': '2019-09-29 03:35:27', 'context': '[贵州遵义公司]到达目的地网点，快件很快进行派送', 'location': '贵州遵义公司'}, {'time': '2019-09-28 21:07:30', 'ftime': '2019-09-28 21:07:30', 'context': '[贵州贵阳分拨中心]从站点发出，本次转运目的地：贵州遵义公司', 'location': '贵州贵阳分拨中心'}, {'time': '2019-09-28 20:17:56', 'ftime': '2019-09-28 20:17:56', 'context': '[贵州贵阳分拨中心]在分拨中心进行卸车扫描', 'location': '贵州贵阳分拨中心'}, {'time': '2019-09-27 20:12:51', 'ftime': '2019-09-27 20:12:51', 'context': '[湖南长沙分拨中心]进行装车扫描，发往：贵州贵阳分拨中心', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-27 19:02:36', 'ftime': '2019-09-27 19:02:36', 'context': '[湖南长沙分拨中心]进行中转集包扫描，发往：贵州贵阳分拨中心', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-27 18:58:04', 'ftime': '2019-09-27 18:58:04', 'context': '[湖南长沙分拨中心]在分拨中心进行称重扫描', 'location': '湖南长沙分拨中心'}, {'time': '2019-09-27 13:37:44', 'ftime': '2019-09-27 13:37:44', 'context': '[湖南长沙开福区中山路公司]进行揽件扫描', 'location': '湖南长沙开福区中山路公司'}]}</t>
-        </is>
-      </c>
-      <c r="I18" s="3" t="n">
-        <v>0.074851</v>
+      <c r="H18" s="5" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 22:13:35', 'ftime': '2019-10-07 22:13:35', 'context': '[河南郑州分拨中心]进行装车扫描，发往：黑龙江哈尔滨分拨中心', 'location': None}, {'time': '2019-10-07 22:11:43', 'ftime': '2019-10-07 22:11:43', 'context': '[河南郑州分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-07 18:45:50', 'ftime': '2019-10-07 18:45:50', 'context': '[河南民权县公司]进行下级地点扫描，发往：黑龙江哈尔滨分拨中心', 'location': None}, {'time': '2019-10-07 16:41:54', 'ftime': '2019-10-07 16:41:54', 'context': '[河南民权县公司]进行揽件扫描', 'location': None}]}</t>
+        </is>
       </c>
       <c r="J18" s="3" t="n">
+        <v>0.099622</v>
+      </c>
+      <c r="K18" s="3" t="n">
         <v>200</v>
       </c>
-      <c r="K18" s="3" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>pass</t>
         </is>
@@ -1562,26 +1543,32 @@
       <c r="G19" s="5" t="n">
         <v>1000</v>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>{'data': {'yesterday': {'date': '28日星期六', 'high': '高温 27℃', 'fx': '东风', 'low': '低温 15℃', 'fl': '&lt;![CDATA[&lt;3级]]&gt;', 'type': '晴'}, 'city': '西安', 'forecast': [{'date': '29日星期天', 'high': '高温 28℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东北风', 'type': '晴'}, {'date': '30日星期一', 'high': '高温 29℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '阴'}, {'date': '1日星期二', 'high': '高温 26℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 15℃', 'fengxiang': '东南风', 'type': '阵雨'}, {'date': '2日星期三', 'high': '高温 24℃', 'fengli': '&lt;![CDATA[3-4级]]&gt;', 'low': '低温 16℃', 'fengxiang': '东风', 'type': '晴'}, {'date': '3日星期四', 'high': '高温 20℃', 'fengli': '&lt;![CDATA[&lt;3级]]&gt;', 'low': '低温 14℃', 'fengxiang': '西南风', 'type': '小雨'}], 'ganmao': '各项气象条件适宜，无明显降温过程，发生感冒机率较低。', 'wendu': '29'}, 'status': 1000, 'desc': 'OK'}</t>
-        </is>
-      </c>
-      <c r="I19" s="3" t="n">
-        <v>0.009567000000000001</v>
-      </c>
-      <c r="J19" s="3" t="n">
-        <v>200</v>
-      </c>
-      <c r="K19" s="3" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
+      <c r="H19" s="5" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="n"/>
+      <c r="J19" s="3" t="n"/>
+      <c r="K19" s="3" t="n"/>
+      <c r="L19" s="3" t="n"/>
     </row>
     <row r="20" ht="39.95" customHeight="1" s="2"/>
     <row r="21" ht="39.95" customHeight="1" s="2"/>
   </sheetData>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="cellIs" priority="2" operator="equal" dxfId="1">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="1" operator="equal" dxfId="0">
+      <formula>"M"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation sqref="H2:H19" showErrorMessage="1" showInputMessage="1" allowBlank="0" type="list">
+      <formula1>"K,M"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C2" r:id="rId1"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C3" r:id="rId2"/>

--- a/data_excel/接口测试用例_ (2).xlsx
+++ b/data_excel/接口测试用例_ (2).xlsx
@@ -607,11 +607,11 @@
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-30 16:34:44', 'context': '查无结果', 'ftime': '2019-09-30 16:34:44'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 16:03:33', 'ftime': '2019-10-08 16:03:33', 'context': '[石家庄市]到达【石家中心】（经转）', 'location': None}, {'time': '2019-10-07 06:05:59', 'ftime': '2019-10-07 06:05:59', 'context': '[福州市]离开【福州邮件处理中心】,下一站【石家中心】（经转）', 'location': None}, {'time': '2019-10-07 01:41:29', 'ftime': '2019-10-07 01:41:29', 'context': '[福州市]到达【福州邮件处理中心】（经转）', 'location': None}, {'time': '2019-10-06 22:38:07', 'ftime': '2019-10-06 22:38:07', 'context': '离开【邮政泉州市邮件处理中心】,下一站【福州邮件处理中心】', 'location': None}, {'time': '2019-10-06 19:04:36', 'ftime': '2019-10-06 19:04:36', 'context': '到达【邮政泉州市邮件处理中心】', 'location': None}, {'time': '2019-10-06 18:51:48', 'ftime': '2019-10-06 18:51:48', 'context': '[泉州市]离开【洛江双阳营业部】,下一站【泉州邮处】', 'location': None}, {'time': '2019-10-06 18:49:26', 'ftime': '2019-10-06 18:49:26', 'context': '[泉州市]【洛江双阳营业部】已收件,揽投员:吴继云,电话:13305972527', 'location': None}]}</t>
         </is>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.06644899999999999</v>
+        <v>0.073936</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>200</v>
@@ -720,11 +720,11 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-14 16:34:44', 'context': '查无结果', 'ftime': '2019-09-14 16:34:44'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-02 12:46:13', 'ftime': '2019-10-02 12:46:13', 'context': '【泉州市】 快件已在 【安海】 签收, 签收人: 本人, 如有疑问请电联:15374122556 / 0595-82690020, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': ''}, {'time': '2019-10-02 08:49:08', 'ftime': '2019-10-02 08:49:08', 'context': '【泉州市】 【安海】 的永和刘节兵（15374122556） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': ''}, {'time': '2019-10-02 03:37:19', 'ftime': '2019-10-02 03:37:19', 'context': '【泉州市】 快件已经到达 【安海】', 'location': ''}, {'time': '2019-10-01 20:05:18', 'ftime': '2019-10-01 20:05:18', 'context': '【泉州市】 快件离开 【泉州中转部】 已发往 【安海】', 'location': ''}, {'time': '2019-10-01 19:59:20', 'ftime': '2019-10-01 19:59:20', 'context': '【泉州市】 快件已经到达 【泉州中转部】', 'location': ''}, {'time': '2019-09-30 21:47:00', 'ftime': '2019-09-30 21:47:00', 'context': '【南京市】 快件离开 【南京中转部】 已发往 【泉州中转部】', 'location': ''}, {'time': '2019-09-30 21:46:31', 'ftime': '2019-09-30 21:46:31', 'context': '【南京市】 快件已经到达 【南京中转部】', 'location': ''}, {'time': '2019-09-30 19:00:03', 'ftime': '2019-09-30 19:00:03', 'context': '【滁州市】 快件离开 【滁州全椒】 已发往 【南京中转部】', 'location': ''}, {'time': '2019-09-30 18:59:57', 'ftime': '2019-09-30 18:59:57', 'context': '【滁州市】 【滁州全椒】（0550-5217158） 的 滁州全椒0550-5011166（18712078035） 已揽收', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J4" s="3" t="n">
-        <v>0.068079</v>
+        <v>0.068936</v>
       </c>
       <c r="K4" s="3" t="n">
         <v>200</v>
@@ -824,11 +824,11 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 11:33:51', 'ftime': '2019-10-08 11:33:51', 'context': '离开【云南省鲁甸县投递营业部】,下一站【邮政昭通市昭通市邮件】 昭通市', 'location': ''}, {'time': '2019-10-08 08:00:06', 'ftime': '2019-10-08 08:00:06', 'context': '【云南省鲁甸县投递营业部】投递结果反馈-未妥投,备注(拒收 ),投递员:陈师查询15687002947联系，谢谢,电话:15687002947', 'location': ''}, {'time': '2019-10-04 20:48:17', 'ftime': '2019-10-04 20:48:17', 'context': '【云南省鲁甸县投递营业部】投递结果反馈-未妥投,备注(待收费后投递),投递员:陈师查询15687002947联系，谢谢,电话:15687002947', 'location': ''}, {'time': '2019-10-04 11:08:27', 'ftime': '2019-10-04 11:08:27', 'context': '【云南省鲁甸县投递营业部】安排投递,投递员:陈师查询15687002947联系，谢谢,电话:15687002947', 'location': ''}, {'time': '2019-10-03 19:25:55', 'ftime': '2019-10-03 19:25:55', 'context': '到达【邮政昭通市昭通市邮件】 昭通市', 'location': ''}, {'time': '2019-10-03 11:47:55', 'ftime': '2019-10-03 11:47:55', 'context': '离开【昆明中心局邮处】,下一站【邮政昭通市昭通市邮件】（经转） 昆明市', 'location': ''}, {'time': '2019-10-03 05:29:20', 'ftime': '2019-10-03 05:29:20', 'context': '到达【昆明站】（经转） 昆明市', 'location': ''}, {'time': '2019-10-01 08:44:19', 'ftime': '2019-10-01 08:44:19', 'context': '离开【北京西站】,下一站【昆明站】 北京市', 'location': ''}, {'time': '2019-09-29 05:38:49', 'ftime': '2019-09-29 05:38:49', 'context': '到达【北京综合邮件处理中心】 北京市', 'location': ''}, {'time': '2019-09-28 18:42:37', 'ftime': '2019-09-28 18:42:37', 'context': '离开【电子商务综合项目组】,下一站【北京中心】 北京市', 'location': ''}, {'time': '2019-09-28 18:27:14', 'ftime': '2019-09-28 18:27:14', 'context': '北京市 【电子商务综合项目组】已收件,揽投员:徐丽,电话:12345678901', 'location': ''}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-06 12:26:33', 'ftime': '2019-10-06 12:26:33', 'context': '[金华市]已签收,感谢使用顺丰,期待再次为您服务', 'location': None}, {'time': '2019-10-06 12:00:33', 'ftime': '2019-10-06 12:00:33', 'context': '[金华市]快件交给吕安，正在派送途中（联系电话：18357925753）', 'location': None}, {'time': '2019-10-06 11:59:23', 'ftime': '2019-10-06 11:59:23', 'context': '[金华市]正在派送途中,请您准备签收(派件人:吕安,电话:18357925753)', 'location': None}, {'time': '2019-10-06 11:59:23', 'ftime': '2019-10-06 11:59:23', 'context': '[金华市]快件到达 【金华义乌黎明村营业点】', 'location': None}, {'time': '2019-10-06 11:25:49', 'ftime': '2019-10-06 11:25:49', 'context': '[金华市]快件已发车', 'location': None}, {'time': '2019-10-06 11:25:42', 'ftime': '2019-10-06 11:25:42', 'context': '[金华市]快件在【金华义乌集散中心】已装车,准备发往 【金华义乌黎明村营业点】', 'location': None}, {'time': '2019-10-06 09:12:52', 'ftime': '2019-10-06 09:12:52', 'context': '[金华市]快件到达 【金华义乌集散中心】', 'location': None}, {'time': '2019-10-06 08:53:00', 'ftime': '2019-10-06 08:53:00', 'context': '快件到达【金华市】，准备发往【金华义乌集散中心】', 'location': None}, {'time': '2019-10-06 07:02:00', 'ftime': '2019-10-06 07:02:00', 'context': '[北京市]快件在【北京飞往金华市航班上】已起飞', 'location': None}, {'time': '2019-10-06 01:44:41', 'ftime': '2019-10-06 01:44:41', 'context': '[北京市]快件在【北京首都机场集散中心2】已装车,准备发往 【金华义乌集散中心】', 'location': None}, {'time': '2019-10-06 00:41:35', 'ftime': '2019-10-06 00:41:35', 'context': '[北京市]快件到达 【北京首都机场集散中心2】', 'location': None}, {'time': '2019-10-05 21:21:41', 'ftime': '2019-10-05 21:21:41', 'context': '[承德市]快件已发车', 'location': None}, {'time': '2019-10-05 21:20:08', 'ftime': '2019-10-05 21:20:08', 'context': '[承德市]快件在【承德双峰寺集散点】已装车,准备发往 【北京首都机场集散中心2】', 'location': None}, {'time': '2019-10-05 20:04:32', 'ftime': '2019-10-05 20:04:32', 'context': '[承德市]快件到达 【承德双峰寺集散点】', 'location': None}, {'time': '2019-10-05 18:05:39', 'ftime': '2019-10-05 18:05:39', 'context': '[承德市]快件已发车', 'location': None}, {'time': '2019-10-05 17:57:56', 'ftime': '2019-10-05 17:57:56', 'context': '[承德市]快件在【承德兴隆富丽园营业点】已装车,准备发往 【承德双峰寺集散点】', 'location': None}, {'time': '2019-10-05 12:53:26', 'ftime': '2019-10-05 12:53:26', 'context': '[承德市]顺丰速运 已收取快件', 'location': None}]}</t>
         </is>
       </c>
       <c r="J6" s="3" t="n">
-        <v>0.071285</v>
+        <v>0.07380399999999999</v>
       </c>
       <c r="K6" s="3" t="n">
         <v>200</v>
@@ -928,11 +928,11 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': '00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-08 06:15:13', 'ftime': '2019-10-08 06:15:13', 'context': '[合肥市]离开【合肥中心】,下一站【安徽省定远县报刊投递班】（经转）', 'location': None}, {'time': '2019-10-08 02:46:21', 'ftime': '2019-10-08 02:46:21', 'context': '[合肥市]到达【合肥中心】（经转）', 'location': None}, {'time': '2019-10-07 04:45:48', 'ftime': '2019-10-07 04:45:48', 'context': '[广州市]离开【江高中心】,下一站【合肥中心】（经转）', 'location': None}, {'time': '2019-10-06 08:17:39', 'ftime': '2019-10-06 08:17:39', 'context': '[广州市]到达【江高中心】（经转）', 'location': None}, {'time': '2019-10-05 22:05:08', 'ftime': '2019-10-05 22:05:08', 'context': '[深圳市]离开【邮政深圳市处理中心】,下一站【邮政深圳市处理中心】', 'location': None}, {'time': '2019-10-05 14:16:14', 'ftime': '2019-10-05 14:16:14', 'context': '[深圳市]到达【邮政深圳市处理中心】', 'location': None}, {'time': '2019-10-05 13:33:36', 'ftime': '2019-10-05 13:33:36', 'context': '[深圳市]离开【邮政深圳市蛇口支局】,下一站【深圳】', 'location': None}, {'time': '2019-10-05 09:43:10', 'ftime': '2019-10-05 09:43:10', 'context': '[深圳市]【深圳市蛇口邮政支局】已收件', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-03 20:00:51', 'ftime': '2019-10-03 20:00:51', 'context': '客户签收人: 他人代签,长沙师范北校区8号店 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：95554，投诉电话：18521860296', 'location': ''}, {'time': '2019-09-30 10:28:39', 'ftime': '2019-09-30 10:28:39', 'context': '【湖南省长沙市星沙二部公司】 已收入', 'location': ''}, {'time': '2019-09-30 08:27:48', 'ftime': '2019-09-30 08:27:48', 'context': '师范北校区步行街8号店圆通快递妈妈驿站已发出自提短信,请上门自提,联系电话18521860310', 'location': ''}, {'time': '2019-09-30 08:27:47', 'ftime': '2019-09-30 08:27:47', 'context': '快件已到达师范北校区步行街8号店圆通快递妈妈驿站,联系电话18521860310', 'location': ''}, {'time': '2019-09-30 06:32:54', 'ftime': '2019-09-30 06:32:54', 'context': '【湖南省长沙市星沙二部公司】 派件中 派件人: 李一化 电话 95554 如有疑问，请联系：18521860296', 'location': ''}, {'time': '2019-09-30 04:02:22', 'ftime': '2019-09-30 04:02:22', 'context': '【湖南省长沙市星沙二部】 已发出 下一站 【长沙转运中心】', 'location': ''}, {'time': '2019-09-29 23:40:28', 'ftime': '2019-09-29 23:40:28', 'context': '【长沙转运中心】 已发出 下一站 【湖南省长沙市星沙二部】', 'location': ''}, {'time': '2019-09-29 19:13:33', 'ftime': '2019-09-29 19:13:33', 'context': '【长沙转运中心公司】 已收入', 'location': ''}, {'time': '2019-09-29 14:51:29', 'ftime': '2019-09-29 14:51:29', 'context': '【湖南省市场部公司】 已收件 取件人: 李敏 (18664618688)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J8" s="3" t="n">
-        <v>0.075573</v>
+        <v>0.072032</v>
       </c>
       <c r="K8" s="3" t="n">
         <v>200</v>
@@ -1032,11 +1032,11 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-09-30 18:44:20', 'ftime': '2019-09-30 18:44:20', 'context': '【赣州市】 快件已在 【南康潭口镇】 签收, 签收人: 其它, 如有疑问请电联:18146673602 / 15579731668, 您的快递已经妥投。风里来雨里去, 只为客官您满意。上有老下有小, 赏个好评好不好？【请在评价快递员处帮忙点亮五颗星星哦~】', 'location': None}, {'time': '2019-09-30 12:29:49', 'ftime': '2019-09-30 12:29:49', 'context': '【赣州市】 【南康潭口镇】 的小曾（18146673602） 正在第1次派件, 请保持电话畅通,并耐心等待（95720为中通快递员外呼专属号码，请放心接听）', 'location': None}, {'time': '2019-09-30 00:00:33', 'ftime': '2019-09-30 00:00:33', 'context': '【赣州市】 快件已经到达 【南康潭口镇】', 'location': None}, {'time': '2019-09-29 15:37:53', 'ftime': '2019-09-29 15:37:53', 'context': '【赣州市】 快件离开 【赣州中转部】 已发往 【南康潭口镇】', 'location': None}, {'time': '2019-09-29 14:52:39', 'ftime': '2019-09-29 14:52:39', 'context': '【赣州市】 快件已经到达 【赣州中转部】', 'location': None}, {'time': '2019-09-29 07:08:11', 'ftime': '2019-09-29 07:08:11', 'context': '【广州市】 快件离开 【广州中心】 已发往 【赣州中转部】', 'location': None}, {'time': '2019-09-29 05:08:30', 'ftime': '2019-09-29 05:08:30', 'context': '【广州市】 快件已经到达 【广州中心】', 'location': None}, {'time': '2019-09-29 02:41:32', 'ftime': '2019-09-29 02:41:32', 'context': '【广州市】 快件离开 【广州广园】 已发往 【赣州中转部】', 'location': None}, {'time': '2019-09-28 22:39:25', 'ftime': '2019-09-28 22:39:25', 'context': '【广州市】 【广州广园】（020-37414075、020-37414074、020-37414073） 的 V郑勇华（13000000000） 已揽收', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 11:21:20', 'ftime': '2019-10-08 11:21:20', 'context': '客户签收人: 白云新村62栋圆通速递 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：13584596757，投诉电话：0519-86957109', 'location': None}, {'time': '2019-10-08 08:51:20', 'ftime': '2019-10-08 08:51:20', 'context': '【江苏省常州市钟楼区荆川公司】 派件中 派件人: 杨欢 电话 13584596757 如有疑问，请联系：0519-86957109', 'location': None}, {'time': '2019-10-08 02:51:44', 'ftime': '2019-10-08 02:51:44', 'context': '【常州接驳点】 已发出 下一站 【江苏省常州市钟楼区荆川】', 'location': None}, {'time': '2019-10-08 02:10:00', 'ftime': '2019-10-08 02:10:00', 'context': '【常州接驳点公司】 已收入', 'location': None}, {'time': '2019-10-07 21:24:43', 'ftime': '2019-10-07 21:24:43', 'context': '【无锡转运中心】 已发出 下一站 【常州接驳点】', 'location': None}, {'time': '2019-10-07 21:21:34', 'ftime': '2019-10-07 21:21:34', 'context': '【无锡转运中心公司】 已收入', 'location': None}, {'time': '2019-10-07 02:13:14', 'ftime': '2019-10-07 02:13:14', 'context': '【泉州转运中心】 已发出 下一站 【无锡转运中心】', 'location': None}, {'time': '2019-10-07 02:11:40', 'ftime': '2019-10-07 02:11:40', 'context': '【泉州转运中心公司】 已收入', 'location': None}, {'time': '2019-10-07 01:09:23', 'ftime': '2019-10-07 01:09:23', 'context': '【福建省泉州市晋江市三部】 已发出 下一站 【泉州转运中心】', 'location': None}, {'time': '2019-10-07 00:19:41', 'ftime': '2019-10-07 00:19:41', 'context': '【福建省泉州市晋江市三部公司】 已打包', 'location': None}, {'time': '2019-10-06 22:33:15', 'ftime': '2019-10-06 22:33:15', 'context': '【福建省泉州市晋江市三部公司】 已收件 取件人: 林家龙 (15359300282)', 'location': None}]}</t>
         </is>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.07199899999999999</v>
+        <v>0.075048</v>
       </c>
       <c r="K10" s="3" t="n">
         <v>200</v>
@@ -1145,11 +1145,11 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-09-22 16:34:45', 'context': '查无结果', 'ftime': '2019-09-22 16:34:45'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-07 18:36:53', 'ftime': '2019-10-07 18:36:53', 'context': '[广东广州白云区嘉禾公司黄边分部]快件已被 已签收 签收', 'location': '广东广州白云区嘉禾公司黄边分部'}, {'time': '2019-10-07 16:53:41', 'ftime': '2019-10-07 16:53:41', 'context': '[广东广州白云区嘉禾公司黄边分部]进行派件扫描；派送业务员：向加华；联系电话：13527663225', 'location': '广东广州白云区嘉禾公司黄边分部'}, {'time': '2019-10-07 14:07:29', 'ftime': '2019-10-07 14:07:29', 'context': '[广东广州白云区嘉禾公司]进行快件扫描，发往：广东广州白云区嘉禾公司黄边分部', 'location': '广东广州白云区嘉禾公司'}, {'time': '2019-10-07 11:04:24', 'ftime': '2019-10-07 11:04:24', 'context': '[广东广州分拨中心]从站点发出，本次转运目的地：广东广州白云区嘉禾公司', 'location': '广东广州分拨中心'}, {'time': '2019-10-07 10:44:09', 'ftime': '2019-10-07 10:44:09', 'context': '[广东广州分拨中心]在分拨中心进行卸车扫描', 'location': '广东广州分拨中心'}, {'time': '2019-10-06 22:25:12', 'ftime': '2019-10-06 22:25:12', 'context': '[湖南长沙分拨中心]进行装车扫描，发往：广东广州分拨中心', 'location': '湖南长沙分拨中心'}, {'time': '2019-10-06 22:02:15', 'ftime': '2019-10-06 22:02:15', 'context': '[湖南长沙分拨中心]进行中转集包扫描，发往：广东广州网点包', 'location': '湖南长沙分拨中心'}, {'time': '2019-10-06 21:56:32', 'ftime': '2019-10-06 21:56:32', 'context': '[湖南长沙分拨中心]在分拨中心进行称重扫描', 'location': '湖南长沙分拨中心'}, {'time': '2019-10-06 18:54:43', 'ftime': '2019-10-06 18:54:43', 'context': '[湖南长沙县星沙镇公司]进行揽件扫描', 'location': '湖南长沙县星沙镇公司'}]}</t>
         </is>
       </c>
       <c r="J12" s="3" t="n">
-        <v>0.06300799999999999</v>
+        <v>0.07478600000000001</v>
       </c>
       <c r="K12" s="3" t="n">
         <v>200</v>
@@ -1267,11 +1267,11 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'com': 'zhongtong', 'status': '200', 'condition': 'F00', 'state': '3', 'data': [{'time': '2019-10-02 16:34:45', 'context': '查无结果', 'ftime': '2019-10-02 16:34:45'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-10-08 13:33:40', 'ftime': '2019-10-08 13:33:40', 'context': '客户签收人: 已签收，签收人凭取货码签收。 已签收 感谢使用圆通速递，期待再次为您服务 如有疑问请联系：18521137105，投诉电话：15726397672', 'location': ''}, {'time': '2019-10-08 13:05:17', 'ftime': '2019-10-08 13:05:17', 'context': '快件已由科大篮球场4号门对过菜鸟驿站代收，请及时取件，如有疑问请联系18560633345', 'location': ''}, {'time': '2019-10-08 07:39:24', 'ftime': '2019-10-08 07:39:24', 'context': '【山东省青岛市崂山二部公司】 派件中 派件人: 朱孔航 电话 13173200056 如有疑问，请联系：15726397672', 'location': ''}, {'time': '2019-10-08 07:33:43', 'ftime': '2019-10-08 07:33:43', 'context': '【山东省青岛市崂山二部公司】 已收入', 'location': ''}, {'time': '2019-10-08 03:53:37', 'ftime': '2019-10-08 03:53:37', 'context': '【青岛转运中心】 已发出 下一站 【山东省青岛市崂山二部】', 'location': ''}, {'time': '2019-10-08 01:54:07', 'ftime': '2019-10-08 01:54:07', 'context': '【青岛转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-07 22:22:47', 'ftime': '2019-10-07 22:22:47', 'context': '【潍坊转运中心】 已发出 下一站 【青岛转运中心】', 'location': ''}, {'time': '2019-10-07 18:43:15', 'ftime': '2019-10-07 18:43:15', 'context': '【山东省淄博市临淄区】 已发出 下一站 【潍坊转运中心】', 'location': ''}, {'time': '2019-10-07 18:02:51', 'ftime': '2019-10-07 18:02:51', 'context': '【山东省淄博市临淄区公司】 已打包', 'location': ''}, {'time': '2019-10-07 17:08:54', 'ftime': '2019-10-07 17:08:54', 'context': '【山东省淄博市临淄区公司】 已收件 取件人: 冯其建 (13396433903)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J14" s="3" t="n">
-        <v>0.064373</v>
+        <v>0.077179</v>
       </c>
       <c r="K14" s="3" t="n">
         <v>200</v>
@@ -1371,11 +1371,11 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 14:24:09', 'ftime': '2019-10-08 14:24:09', 'context': '[浙江慈溪管理公司大发路分部]进行派件扫描；派送业务员：杨光辉；联系电话：18957414235', 'location': '浙江慈溪管理公司大发路分部'}, {'time': '2019-10-08 07:56:32', 'ftime': '2019-10-08 07:56:32', 'context': '[浙江慈溪管理公司]进行快件扫描，发往：浙江慈溪管理公司大发路分部', 'location': '浙江慈溪管理公司'}, {'time': '2019-10-08 07:55:28', 'ftime': '2019-10-08 07:55:28', 'context': '[浙江慈溪管理公司]到达目的地网点，快件很快进行派送', 'location': '浙江慈溪管理公司'}, {'time': '2019-10-08 04:53:02', 'ftime': '2019-10-08 04:53:02', 'context': '[浙江宁波分拨中心]从站点发出，本次转运目的地：浙江慈溪管理公司', 'location': '浙江宁波分拨中心'}, {'time': '2019-10-08 04:41:27', 'ftime': '2019-10-08 04:41:27', 'context': '[浙江宁波分拨中心]在分拨中心进行卸车扫描', 'location': '浙江宁波分拨中心'}, {'time': '2019-10-07 21:43:06', 'ftime': '2019-10-07 21:43:06', 'context': '[浙江温州分拨中心]进行装车扫描，发往：浙江宁波分拨中心', 'location': '浙江温州分拨中心'}, {'time': '2019-10-07 21:41:04', 'ftime': '2019-10-07 21:41:04', 'context': '[浙江温州分拨中心]在分拨中心进行称重扫描', 'location': '浙江温州分拨中心'}, {'time': '2019-10-07 15:20:02', 'ftime': '2019-10-07 15:20:02', 'context': '[福建福安市公司]进行发出扫描，发往：浙江温州分拨中心', 'location': '福建福安市公司'}, {'time': '2019-10-07 15:19:56', 'ftime': '2019-10-07 15:19:56', 'context': '[福建福安市公司]进行装车扫描，发往：浙江温州分拨中心', 'location': '福建福安市公司'}, {'time': '2019-10-07 15:14:56', 'ftime': '2019-10-07 15:14:56', 'context': '[福建福安市公司]在分拨中心进行称重扫描', 'location': '福建福安市公司'}, {'time': '2019-10-07 10:14:06', 'ftime': '2019-10-07 10:14:06', 'context': '[福建福安市公司]进行下级地点扫描，发往：浙江宁波分拨中心', 'location': '福建福安市公司'}, {'time': '2019-10-06 17:09:50', 'ftime': '2019-10-06 17:09:50', 'context': '[福建福安市公司]进行揽件扫描', 'location': '福建福安市公司'}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '1', 'condition': 'F00', 'com': 'zhongtong', 'status': '200', 'state': '3', 'data': [{'time': '2019-07-17 12:18:56', 'ftime': '2019-07-17 12:18:56', 'context': '[吕梁市]已签收,他人代收,投递员:吴永吉,电话:15834234118', 'location': None}, {'time': '2019-07-17 08:24:56', 'ftime': '2019-07-17 08:24:56', 'context': '吕梁市久安路揽投部】安排投递,投递员:吴永吉,电话:15834234118', 'location': None}, {'time': '2019-07-17 08:03:51', 'ftime': '2019-07-17 08:03:51', 'context': '离开【吕梁中心】,下一站【吕梁市久安路揽投部】', 'location': None}, {'time': '2019-07-17 05:45:30', 'ftime': '2019-07-17 05:45:30', 'context': '[吕梁市]到达【吕梁中心】', 'location': None}, {'time': '2019-07-17 02:08:15', 'ftime': '2019-07-17 02:08:15', 'context': '[太原市]离开【太原中心】,下一站【吕梁中心】', 'location': None}, {'time': '2019-07-16 17:56:46', 'ftime': '2019-07-16 17:56:46', 'context': '[太原市]到达【太原中心】', 'location': None}, {'time': '2019-07-16 17:32:52', 'ftime': '2019-07-16 17:32:52', 'context': '离开【邮政太原市并州路支局】,下一站【太原中心】', 'location': None}, {'time': '2019-07-16 16:00:22', 'ftime': '2019-07-16 16:00:22', 'context': '[太原市]【并州路邮政支局】已收件', 'location': None}]}</t>
         </is>
       </c>
       <c r="J16" s="3" t="n">
-        <v>0.087408</v>
+        <v>0.073447</v>
       </c>
       <c r="K16" s="3" t="n">
         <v>200</v>
@@ -1484,11 +1484,11 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'C00', 'com': 'zhongtong', 'status': '200', 'state': '0', 'data': [{'time': '2019-10-07 22:13:35', 'ftime': '2019-10-07 22:13:35', 'context': '[河南郑州分拨中心]进行装车扫描，发往：黑龙江哈尔滨分拨中心', 'location': None}, {'time': '2019-10-07 22:11:43', 'ftime': '2019-10-07 22:11:43', 'context': '[河南郑州分拨中心]在分拨中心进行称重扫描', 'location': None}, {'time': '2019-10-07 18:45:50', 'ftime': '2019-10-07 18:45:50', 'context': '[河南民权县公司]进行下级地点扫描，发往：黑龙江哈尔滨分拨中心', 'location': None}, {'time': '2019-10-07 16:41:54', 'ftime': '2019-10-07 16:41:54', 'context': '[河南民权县公司]进行揽件扫描', 'location': None}]}</t>
+          <t>{'message': 'ok', 'nu': '73116039505988', 'ischeck': '0', 'condition': 'H100', 'com': 'zhongtong', 'status': '200', 'state': '5', 'data': [{'time': '2019-10-08 12:28:02', 'ftime': '2019-10-08 12:28:02', 'context': '【山东省烟台市只楚公司】 派件中 派件人: 林常用 电话 13791265582 如有疑问，请联系：0535-6815302', 'location': ''}, {'time': '2019-10-08 10:38:04', 'ftime': '2019-10-08 10:38:04', 'context': '【烟台转运中心】 已发出 下一站 【山东省烟台市只楚】', 'location': ''}, {'time': '2019-10-08 10:08:59', 'ftime': '2019-10-08 10:08:59', 'context': '【烟台转运中心公司】 已收入', 'location': ''}, {'time': '2019-10-07 22:35:26', 'ftime': '2019-10-07 22:35:26', 'context': '【潍坊转运中心】 已发出 下一站 【烟台转运中心】', 'location': ''}, {'time': '2019-10-07 18:58:01', 'ftime': '2019-10-07 18:58:01', 'context': '【山东省安丘市】 已发出 下一站 【潍坊转运中心】', 'location': ''}, {'time': '2019-10-07 18:36:18', 'ftime': '2019-10-07 18:36:18', 'context': '【山东省安丘市公司】 已打包', 'location': ''}, {'time': '2019-10-07 18:23:00', 'ftime': '2019-10-07 18:23:00', 'context': '【山东省安丘市公司】 已收件 取件人: 刘国君 (13563640315)', 'location': ''}]}</t>
         </is>
       </c>
       <c r="J18" s="3" t="n">
-        <v>0.099622</v>
+        <v>0.07517500000000001</v>
       </c>
       <c r="K18" s="3" t="n">
         <v>200</v>
